--- a/code/whole_experiment/150_steady_ex.xlsx
+++ b/code/whole_experiment/150_steady_ex.xlsx
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7247412121306753</v>
+        <v>0.6866220949987063</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1287447608513571</v>
+        <v>0.07832617750283759</v>
       </c>
       <c r="D2" t="n">
-        <v>0.723716424549352</v>
+        <v>0.5648851390071565</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7248259557519333</v>
+        <v>0.5824762670738143</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9495859674116286</v>
+        <v>0.7252176232147757</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -513,7 +513,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9541889733285066</v>
+        <v>0.7731713464497074</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -526,16 +526,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7533389209745828</v>
+        <v>0.7763738498511645</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2223219598630786</v>
+        <v>0.09196861859515884</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7236446312554191</v>
+        <v>0.7688557428714248</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7240363213859674</v>
+        <v>0.7704027759541541</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -547,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9541889733285066</v>
+        <v>0.7731713464497074</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -560,19 +560,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6221627234466307</v>
+        <v>0.3346731588665746</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03891114633530871</v>
+        <v>0.01905105916876874</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5966371275270672</v>
+        <v>0.3386194523850505</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5714893681702079</v>
+        <v>0.2734304580862799</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6239099804110289</v>
+        <v>0.3404688003079405</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9541889733285066</v>
+        <v>0.7731713464497074</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -594,19 +594,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5885356022302887</v>
+        <v>0.4077395020010059</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05803242400727584</v>
+        <v>0.01394973079558942</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5941358280994086</v>
+        <v>0.4316005269718193</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5934779347626173</v>
+        <v>0.4312063031196857</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6264429799377941</v>
+        <v>0.4329141358192677</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9541889733285066</v>
+        <v>0.7731713464497074</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -628,19 +628,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6141755327977414</v>
+        <v>0.3537116401586361</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06209185040114086</v>
+        <v>0.1646564139702709</v>
       </c>
       <c r="D6" t="n">
-        <v>0.588430739112672</v>
+        <v>0.341697341528256</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5888207191954188</v>
+        <v>0.3419247141206975</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6204681014349045</v>
+        <v>0.4294109089001671</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -649,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9541889733285066</v>
+        <v>0.7731713464497074</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -662,19 +662,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5844822309270143</v>
+        <v>0.3532142006906557</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1309089045446359</v>
+        <v>-0.004068418707530798</v>
       </c>
       <c r="D7" t="n">
-        <v>0.606265835843825</v>
+        <v>0.3627462501908409</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6062759491438789</v>
+        <v>0.4080743781369661</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5848327846076885</v>
+        <v>0.3488517332439991</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9541889733285066</v>
+        <v>0.7731713464497074</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -696,19 +696,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1535809058389018</v>
+        <v>0.03482061799613023</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03082457661130516</v>
+        <v>0.02046180945479864</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1331672937253274</v>
+        <v>0.03799643316067187</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1757869855584452</v>
+        <v>0.0550553543570977</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1535809058389018</v>
+        <v>0.03482061799613023</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9541889733285066</v>
+        <v>0.7731713464497074</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -730,19 +730,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6021662400970096</v>
+        <v>0.3759557630301001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06204564750270482</v>
+        <v>0.02701234304318216</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6018450430144152</v>
+        <v>0.4262598417588392</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6165152558501901</v>
+        <v>0.4356816341741578</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6871528138265187</v>
+        <v>0.471236974587163</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -751,7 +751,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9541889733285066</v>
+        <v>0.7731713464497074</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -764,19 +764,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7327911923990598</v>
+        <v>0.7876001727925226</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04944625392595468</v>
+        <v>0.07638621175350432</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6522703381755592</v>
+        <v>0.7167905299411165</v>
       </c>
       <c r="E10" t="n">
-        <v>0.680212665438663</v>
+        <v>0.7155973332581784</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8925941263428563</v>
+        <v>0.6579646514386291</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -785,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8741766220604333</v>
+        <v>0.705385919880596</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -798,19 +798,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.747950127679637</v>
+        <v>0.8142108971224218</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04108833225459513</v>
+        <v>0.03021143466402511</v>
       </c>
       <c r="D11" t="n">
-        <v>0.726606776289728</v>
+        <v>0.8027045269311687</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7266426519118852</v>
+        <v>0.8184337193132002</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9946666207557602</v>
+        <v>0.9118005493700825</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -819,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8741766220604333</v>
+        <v>0.705385919880596</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -832,19 +832,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4694263021148039</v>
+        <v>0.1735694499888212</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0350287738835059</v>
+        <v>0.007775574924423425</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4481773195154726</v>
+        <v>0.2280960987389549</v>
       </c>
       <c r="E12" t="n">
-        <v>0.332793187053457</v>
+        <v>0.1906334725120628</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4676145666658675</v>
+        <v>0.2036442244262027</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8741766220604333</v>
+        <v>0.705385919880596</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4566120585801131</v>
+        <v>0.2771781510975664</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01781999113565892</v>
+        <v>0.03655563301308962</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4509137777500053</v>
+        <v>0.2960296044191748</v>
       </c>
       <c r="E13" t="n">
-        <v>0.45276452380414</v>
+        <v>0.2964452854434547</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4805331765573704</v>
+        <v>0.2919447388313722</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -887,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8741766220604333</v>
+        <v>0.705385919880596</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4467821932537434</v>
+        <v>0.2688410555162507</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1082842729158986</v>
+        <v>0.03737087595859079</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4504683498025399</v>
+        <v>0.2716292647328543</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4515812227420306</v>
+        <v>0.2717256562255072</v>
       </c>
       <c r="F14" t="n">
-        <v>0.482535319510184</v>
+        <v>0.2688265107471278</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -921,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8741766220604333</v>
+        <v>0.705385919880596</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -934,19 +934,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4961357721845495</v>
+        <v>0.2769654125262141</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02206143580497505</v>
+        <v>0.04487055622944015</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4639019291020159</v>
+        <v>0.3058740602687597</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5038550636410685</v>
+        <v>0.3206499584417836</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4917502826327658</v>
+        <v>0.2769654125262141</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -955,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8741766220604333</v>
+        <v>0.705385919880596</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -968,19 +968,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01248302186872012</v>
+        <v>0.01788280397191229</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03085630248979226</v>
+        <v>0.02160086061921386</v>
       </c>
       <c r="D16" t="n">
-        <v>0.04001980107112821</v>
+        <v>0.0135932694454731</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03382771180994103</v>
+        <v>0.03388654735567331</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01248302186872012</v>
+        <v>0.01788280397191229</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -989,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8741766220604333</v>
+        <v>0.705385919880596</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1002,19 +1002,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4889695528395876</v>
+        <v>0.2844447564176746</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03047021272135868</v>
+        <v>0.01229950558105457</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4780454671767559</v>
+        <v>0.3015700565791932</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4792693643935852</v>
+        <v>0.3063814320887563</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4906874186501464</v>
+        <v>0.1703040099189631</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1023,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8741766220604333</v>
+        <v>0.705385919880596</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1036,19 +1036,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6981636657065378</v>
+        <v>0.8151244102228417</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09206614346490234</v>
+        <v>0.09839518243571795</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7192020836232131</v>
+        <v>0.7300254097146229</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7322641298286577</v>
+        <v>0.7646656626406328</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7548253872604432</v>
+        <v>0.5595287732774004</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1057,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7012390355652525</v>
+        <v>0.7439240984530483</v>
       </c>
       <c r="J18" t="n">
         <v>2</v>
@@ -1070,19 +1070,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8370284973087874</v>
+        <v>0.8316535996814952</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0522143478405768</v>
+        <v>0.1330659751956881</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8231022685515599</v>
+        <v>0.8456180400675823</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8342603929047179</v>
+        <v>0.859857652468192</v>
       </c>
       <c r="F19" t="n">
-        <v>0.948223580492123</v>
+        <v>0.8823769286355663</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7012390355652525</v>
+        <v>0.7439240984530483</v>
       </c>
       <c r="J19" t="n">
         <v>2</v>
@@ -1104,19 +1104,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3143993876565481</v>
+        <v>0.2404219050853871</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02989036613486141</v>
+        <v>0.007263750058603666</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3387938501312006</v>
+        <v>0.2781056208451783</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2848635743329797</v>
+        <v>0.2420467042624727</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3213448249383511</v>
+        <v>0.2511457038254246</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7012390355652525</v>
+        <v>0.7439240984530483</v>
       </c>
       <c r="J20" t="n">
         <v>2</v>
@@ -1138,19 +1138,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4102901457468922</v>
+        <v>0.2675772638636221</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01370808638715162</v>
+        <v>0.009283099032285472</v>
       </c>
       <c r="D21" t="n">
-        <v>0.414532814944465</v>
+        <v>0.2844489333444734</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4153087950401191</v>
+        <v>0.2845180273839616</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4102634204961836</v>
+        <v>0.2942353456286823</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1159,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7012390355652525</v>
+        <v>0.7439240984530483</v>
       </c>
       <c r="J21" t="n">
         <v>2</v>
@@ -1172,19 +1172,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3423137599901568</v>
+        <v>0.3283330952785777</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06341802499607627</v>
+        <v>0.1221319106955915</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3428646612596403</v>
+        <v>0.3231038186728229</v>
       </c>
       <c r="E22" t="n">
-        <v>0.36719005927281</v>
+        <v>0.3238845481360288</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3710941226330294</v>
+        <v>0.3315549892027761</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1193,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7012390355652525</v>
+        <v>0.7439240984530483</v>
       </c>
       <c r="J22" t="n">
         <v>2</v>
@@ -1206,19 +1206,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3126175926514988</v>
+        <v>0.2684204090842293</v>
       </c>
       <c r="C23" t="n">
-        <v>0.006591258010675506</v>
+        <v>0.006799358594201263</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3730043595370404</v>
+        <v>0.3056366876846169</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3950422869772409</v>
+        <v>0.3206134280726625</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3126175926514988</v>
+        <v>0.2592894596749559</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1227,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7012390355652525</v>
+        <v>0.7439240984530483</v>
       </c>
       <c r="J23" t="n">
         <v>2</v>
@@ -1240,19 +1240,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0344496832943297</v>
+        <v>0.02484704264383182</v>
       </c>
       <c r="C24" t="n">
-        <v>0.02245993309346043</v>
+        <v>0.01437961731137929</v>
       </c>
       <c r="D24" t="n">
-        <v>0.03677592723621484</v>
+        <v>0.01797039169853915</v>
       </c>
       <c r="E24" t="n">
-        <v>0.04381661995101457</v>
+        <v>0.01364728803515007</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0344496832943297</v>
+        <v>0.02484704264383182</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1261,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7012390355652525</v>
+        <v>0.7439240984530483</v>
       </c>
       <c r="J24" t="n">
         <v>2</v>
@@ -1274,19 +1274,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3705309153632514</v>
+        <v>0.3055016548197332</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01709451463944189</v>
+        <v>0.0435039983280297</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3701739821712765</v>
+        <v>0.2920611720411187</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3873835469474828</v>
+        <v>0.3059392755315339</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3328887907496834</v>
+        <v>0.3542372112480197</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1295,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7012390355652525</v>
+        <v>0.7439240984530483</v>
       </c>
       <c r="J25" t="n">
         <v>2</v>
@@ -1308,19 +1308,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8601620252494806</v>
+        <v>0.6940027839762704</v>
       </c>
       <c r="C26" t="n">
-        <v>0.04800802117805981</v>
+        <v>0.05890260358230308</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8042826721213103</v>
+        <v>0.6373208435419964</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8103655696345227</v>
+        <v>0.6345573257364436</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6762493298642104</v>
+        <v>0.6028625912957016</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1329,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6651041306573873</v>
+        <v>0.6645541645133564</v>
       </c>
       <c r="J26" t="n">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.8339260579135663</v>
+        <v>0.8785579529441083</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1221699683011896</v>
+        <v>0.04913987640861235</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7978453169933871</v>
+        <v>0.883618326208142</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8166683918442896</v>
+        <v>0.8837945191962397</v>
       </c>
       <c r="F27" t="n">
-        <v>0.957918778449622</v>
+        <v>0.9840703436619037</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1363,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0.6651041306573873</v>
+        <v>0.6645541645133564</v>
       </c>
       <c r="J27" t="n">
         <v>3</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3484963334063876</v>
+        <v>0.2827217749065181</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02357085073051721</v>
+        <v>0.04511131561503508</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3695819244525744</v>
+        <v>0.2829196253551861</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3321040631576185</v>
+        <v>0.2590149404055407</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3280786961688542</v>
+        <v>0.2739768222058418</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1397,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0.6651041306573873</v>
+        <v>0.6645541645133564</v>
       </c>
       <c r="J28" t="n">
         <v>3</v>
@@ -1410,19 +1410,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2890790418300687</v>
+        <v>0.310023340557221</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01021756165252985</v>
+        <v>0.01128178864081198</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2924847351002181</v>
+        <v>0.3063786597580128</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2938841880198507</v>
+        <v>0.3069241668314965</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3215346389283433</v>
+        <v>0.3535414638763902</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1431,7 +1431,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0.6651041306573873</v>
+        <v>0.6645541645133564</v>
       </c>
       <c r="J29" t="n">
         <v>3</v>
@@ -1444,19 +1444,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3416819150160523</v>
+        <v>0.3480235481744377</v>
       </c>
       <c r="C30" t="n">
-        <v>0.008884678916216559</v>
+        <v>0.04476881613969193</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3399348922278245</v>
+        <v>0.3500555237458297</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3398623908932342</v>
+        <v>0.3524612567515223</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3821241190291029</v>
+        <v>0.3316842535191107</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1465,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6651041306573873</v>
+        <v>0.6645541645133564</v>
       </c>
       <c r="J30" t="n">
         <v>3</v>
@@ -1478,19 +1478,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3216837504827875</v>
+        <v>0.2925397450669924</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01385241472453646</v>
+        <v>0.02322517536524184</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3009173572369882</v>
+        <v>0.3137804442364501</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3289726114910324</v>
+        <v>0.3174996889796919</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3318883919855676</v>
+        <v>0.2744844928371114</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1499,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0.6651041306573873</v>
+        <v>0.6645541645133564</v>
       </c>
       <c r="J31" t="n">
         <v>3</v>
@@ -1512,19 +1512,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01812409127026103</v>
+        <v>0.0254489534636458</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01185962908128313</v>
+        <v>0.01588741704712182</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01366696452586087</v>
+        <v>0.02986774667497533</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0201074200460106</v>
+        <v>0.0308253627948181</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01812409127026103</v>
+        <v>0.0254489534636458</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1533,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0.6651041306573873</v>
+        <v>0.6645541645133564</v>
       </c>
       <c r="J32" t="n">
         <v>3</v>
@@ -1546,19 +1546,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.342034429599939</v>
+        <v>0.3054760546206687</v>
       </c>
       <c r="C33" t="n">
-        <v>0.02937961763844761</v>
+        <v>0.01459113010191124</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3398843294333698</v>
+        <v>0.3156263046069466</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3394585430248824</v>
+        <v>0.3162483358646257</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4102557786181209</v>
+        <v>0.3835791206670635</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1567,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0.6651041306573873</v>
+        <v>0.6645541645133564</v>
       </c>
       <c r="J33" t="n">
         <v>3</v>
@@ -1580,28 +1580,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3665527716657518</v>
+        <v>0.7903372107959089</v>
       </c>
       <c r="C34" t="n">
-        <v>0.08671753281343657</v>
+        <v>0.0493373539185535</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5663689452376042</v>
+        <v>0.8438823439809771</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5847672089738791</v>
+        <v>0.8774619008482791</v>
       </c>
       <c r="F34" t="n">
-        <v>0.5251030786353952</v>
+        <v>0.3827181934157896</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3917383421873359</v>
+        <v>0.003746829985021673</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8034919456811546</v>
+        <v>0.8920913009317696</v>
       </c>
       <c r="I34" t="n">
-        <v>0.4910220782830382</v>
+        <v>0.4906036393844657</v>
       </c>
       <c r="J34" t="n">
         <v>4</v>
@@ -1614,28 +1614,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.679500002563053</v>
+        <v>0.8501697263004224</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01351350272165793</v>
+        <v>0.01158271489696221</v>
       </c>
       <c r="D35" t="n">
-        <v>0.759485132244776</v>
+        <v>0.8437124705364285</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7714654508722308</v>
+        <v>0.8892033908548692</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6037918286753797</v>
+        <v>0.7478207813442966</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3917383421873359</v>
+        <v>0.003746829985021673</v>
       </c>
       <c r="H35" t="n">
-        <v>0.8034919456811546</v>
+        <v>0.8920913009317696</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4910220782830382</v>
+        <v>0.4906036393844657</v>
       </c>
       <c r="J35" t="n">
         <v>4</v>
@@ -1648,28 +1648,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1390773374247019</v>
+        <v>0.1180869358847166</v>
       </c>
       <c r="C36" t="n">
-        <v>0.001558407493189314</v>
+        <v>0.01021521390776364</v>
       </c>
       <c r="D36" t="n">
-        <v>0.13319586931719</v>
+        <v>0.1343222828429756</v>
       </c>
       <c r="E36" t="n">
-        <v>0.130189747441775</v>
+        <v>0.1267441577141393</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1289615251861782</v>
+        <v>0.1147046336360046</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3917383421873359</v>
+        <v>0.003746829985021673</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8034919456811546</v>
+        <v>0.8920913009317696</v>
       </c>
       <c r="I36" t="n">
-        <v>0.4910220782830382</v>
+        <v>0.4906036393844657</v>
       </c>
       <c r="J36" t="n">
         <v>4</v>
@@ -1682,28 +1682,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0655214218720475</v>
+        <v>0.04869947261227499</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.003675831063130707</v>
+        <v>0.01030130965523158</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07597334816154648</v>
+        <v>0.07750014377875095</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07223202026807818</v>
+        <v>0.08963100830969019</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0119835236856106</v>
+        <v>0.08758672241747881</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3917383421873359</v>
+        <v>0.003746829985021673</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8034919456811546</v>
+        <v>0.8920913009317696</v>
       </c>
       <c r="I37" t="n">
-        <v>0.4910220782830382</v>
+        <v>0.4906036393844657</v>
       </c>
       <c r="J37" t="n">
         <v>4</v>
@@ -1716,28 +1716,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1711503846377531</v>
+        <v>0.1653091100700742</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.0007249864383301052</v>
+        <v>0.02034533477801848</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1419242671533264</v>
+        <v>0.1668136658310742</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1507787119218838</v>
+        <v>0.1726863091277829</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1250469731476484</v>
+        <v>0.1666343016401074</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3917383421873359</v>
+        <v>0.003746829985021673</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8034919456811546</v>
+        <v>0.8920913009317696</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4910220782830382</v>
+        <v>0.4906036393844657</v>
       </c>
       <c r="J38" t="n">
         <v>4</v>
@@ -1750,28 +1750,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1054005608922338</v>
+        <v>0.1799832637139021</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01901124742585504</v>
+        <v>-0.002209816904771002</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1119107535587545</v>
+        <v>0.1864598342913135</v>
       </c>
       <c r="E39" t="n">
-        <v>0.114850085516631</v>
+        <v>0.1935859725745318</v>
       </c>
       <c r="F39" t="n">
-        <v>0.104932058319886</v>
+        <v>0.1848245766199113</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3917383421873359</v>
+        <v>0.003746829985021673</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8034919456811546</v>
+        <v>0.8920913009317696</v>
       </c>
       <c r="I39" t="n">
-        <v>0.4910220782830382</v>
+        <v>0.4906036393844657</v>
       </c>
       <c r="J39" t="n">
         <v>4</v>
@@ -1784,28 +1784,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.02391457356468151</v>
+        <v>0.02034849094800288</v>
       </c>
       <c r="C40" t="n">
-        <v>0.008046473522226779</v>
+        <v>0.0226721744704253</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0173701167164135</v>
+        <v>0.0130924655816526</v>
       </c>
       <c r="E40" t="n">
-        <v>0.009136804240067371</v>
+        <v>0.02913095653953323</v>
       </c>
       <c r="F40" t="n">
-        <v>0.02391457356468151</v>
+        <v>0.02034849094800288</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3917383421873359</v>
+        <v>0.003746829985021673</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8034919456811546</v>
+        <v>0.8920913009317696</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4910220782830382</v>
+        <v>0.4906036393844657</v>
       </c>
       <c r="J40" t="n">
         <v>4</v>
@@ -1818,28 +1818,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1860452446028487</v>
+        <v>0.1990647989665604</v>
       </c>
       <c r="C41" t="n">
-        <v>0.03298715074266191</v>
+        <v>0.01107138097303237</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1859059034769034</v>
+        <v>0.1888953919365827</v>
       </c>
       <c r="E41" t="n">
-        <v>0.180980176626417</v>
+        <v>0.1880334654726004</v>
       </c>
       <c r="F41" t="n">
-        <v>0.155208845739529</v>
+        <v>0.1755905010606445</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3917383421873359</v>
+        <v>0.003746829985021673</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8034919456811546</v>
+        <v>0.8920913009317696</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4910220782830382</v>
+        <v>0.4906036393844657</v>
       </c>
       <c r="J41" t="n">
         <v>4</v>
@@ -1852,28 +1852,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0.9503810318218427</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1116619042952941</v>
+        <v>0.06974869521024202</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0.9774536649126671</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>0.9879152848949833</v>
       </c>
       <c r="F42" t="n">
-        <v>0.996357124148472</v>
+        <v>0.9412732543908104</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0.799357052200712</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8023658368925364</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9227621120015019</v>
+        <v>0.6963219453480265</v>
       </c>
       <c r="J42" t="n">
         <v>5</v>
@@ -1889,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1241422413599472</v>
+        <v>0.08375423771698562</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -1898,16 +1898,16 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0.9774431256702532</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0.799357052200712</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8023658368925364</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9227621120015019</v>
+        <v>0.6963219453480265</v>
       </c>
       <c r="J43" t="n">
         <v>5</v>
@@ -1920,28 +1920,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4116449134970724</v>
+        <v>0.1627365358075501</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07815879655968357</v>
+        <v>0.02123818289265637</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4149708133547962</v>
+        <v>0.1891530858143822</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4068063020762311</v>
+        <v>0.1416901154638949</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4124243313735474</v>
+        <v>0.1874781534569104</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0.799357052200712</v>
       </c>
       <c r="H44" t="n">
-        <v>0.8023658368925364</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9227621120015019</v>
+        <v>0.6963219453480265</v>
       </c>
       <c r="J44" t="n">
         <v>5</v>
@@ -1954,28 +1954,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.4162105590767305</v>
+        <v>0.2068706644549839</v>
       </c>
       <c r="C45" t="n">
-        <v>0.02666608803641541</v>
+        <v>0.03201420622931952</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4162105590767305</v>
+        <v>0.2091971905010627</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4162105590767305</v>
+        <v>0.2068706644549839</v>
       </c>
       <c r="F45" t="n">
-        <v>0.4162105590767305</v>
+        <v>0.2068706644549839</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0.799357052200712</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8023658368925364</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9227621120015019</v>
+        <v>0.6963219453480265</v>
       </c>
       <c r="J45" t="n">
         <v>5</v>
@@ -1988,28 +1988,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4162105590767305</v>
+        <v>0.2085236752686793</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0492545639347725</v>
+        <v>0.03231473324811848</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4162105590767305</v>
+        <v>0.2091971905010627</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4162105590767305</v>
+        <v>0.2091971905010627</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4162105590767305</v>
+        <v>0.2091971905010627</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0.799357052200712</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8023658368925364</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9227621120015019</v>
+        <v>0.6963219453480265</v>
       </c>
       <c r="J46" t="n">
         <v>5</v>
@@ -2022,28 +2022,28 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.4162105590767305</v>
+        <v>0.186378469749278</v>
       </c>
       <c r="C47" t="n">
-        <v>0.07766243411358018</v>
+        <v>0.005448440054186982</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4162105590767305</v>
+        <v>0.2085131676789203</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4162105590767305</v>
+        <v>0.2067449761622621</v>
       </c>
       <c r="F47" t="n">
-        <v>0.4162105590767305</v>
+        <v>0.204116762154119</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0.799357052200712</v>
       </c>
       <c r="H47" t="n">
-        <v>0.8023658368925364</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9227621120015019</v>
+        <v>0.6963219453480265</v>
       </c>
       <c r="J47" t="n">
         <v>5</v>
@@ -2056,28 +2056,28 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.02324324518678177</v>
+        <v>0.03239481208413391</v>
       </c>
       <c r="C48" t="n">
-        <v>0.02343754728717168</v>
+        <v>0.02752263278268934</v>
       </c>
       <c r="D48" t="n">
-        <v>0.02906842488046573</v>
+        <v>0.03300006240468221</v>
       </c>
       <c r="E48" t="n">
-        <v>0.02939155019604089</v>
+        <v>0.03355899366457018</v>
       </c>
       <c r="F48" t="n">
-        <v>0.02324324518678177</v>
+        <v>0.03239481208413391</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0.799357052200712</v>
       </c>
       <c r="H48" t="n">
-        <v>0.8023658368925364</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9227621120015019</v>
+        <v>0.6963219453480265</v>
       </c>
       <c r="J48" t="n">
         <v>5</v>
@@ -2090,28 +2090,28 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.4162105590767305</v>
+        <v>0.2091971905010627</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1500601136957397</v>
+        <v>0.028151302195974</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4162105590767305</v>
+        <v>0.2091971905010627</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4162105590767305</v>
+        <v>0.2091971905010627</v>
       </c>
       <c r="F49" t="n">
-        <v>0.4162105590767305</v>
+        <v>0.2089285430237441</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0.799357052200712</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8023658368925364</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9227621120015019</v>
+        <v>0.6963219453480265</v>
       </c>
       <c r="J49" t="n">
         <v>5</v>
@@ -2124,28 +2124,28 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0.9960094034265079</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1458234005514567</v>
+        <v>0.05163493591260796</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0.9917092652919541</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0.9960169000160988</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0.8452939147764915</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9745239826835818</v>
+        <v>0.8810050641504837</v>
       </c>
       <c r="I50" t="n">
-        <v>0.8600810424616265</v>
+        <v>0.8298027801836942</v>
       </c>
       <c r="J50" t="n">
         <v>6</v>
@@ -2161,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1248032117594964</v>
+        <v>0.2667011933867626</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -2170,16 +2170,16 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9912128392820388</v>
+        <v>0.8880658071217205</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9745239826835818</v>
+        <v>0.8810050641504837</v>
       </c>
       <c r="I51" t="n">
-        <v>0.8600810424616265</v>
+        <v>0.8298027801836942</v>
       </c>
       <c r="J51" t="n">
         <v>6</v>
@@ -2192,28 +2192,28 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.3860808817595287</v>
+        <v>0.2732824834794764</v>
       </c>
       <c r="C52" t="n">
-        <v>0.04157346632588334</v>
+        <v>0.02373034111596163</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3609150229330352</v>
+        <v>0.2795657658469589</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3265548652898851</v>
+        <v>0.2682517880872847</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3858838624786424</v>
+        <v>0.2655285205918553</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9745239826835818</v>
+        <v>0.8810050641504837</v>
       </c>
       <c r="I52" t="n">
-        <v>0.8600810424616265</v>
+        <v>0.8298027801836942</v>
       </c>
       <c r="J52" t="n">
         <v>6</v>
@@ -2226,28 +2226,28 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.3925264174697944</v>
+        <v>0.2888026186726541</v>
       </c>
       <c r="C53" t="n">
-        <v>0.05183635559075328</v>
+        <v>0.01687855461626351</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3925264174697944</v>
+        <v>0.2888026186726541</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3925264174697944</v>
+        <v>0.2888026186726541</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3925264174697944</v>
+        <v>0.2888026186726541</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9745239826835818</v>
+        <v>0.8810050641504837</v>
       </c>
       <c r="I53" t="n">
-        <v>0.8600810424616265</v>
+        <v>0.8298027801836942</v>
       </c>
       <c r="J53" t="n">
         <v>6</v>
@@ -2260,28 +2260,28 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.3925264174697944</v>
+        <v>0.2888026186726541</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0948026116042487</v>
+        <v>0.04156249922888925</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3925264174697944</v>
+        <v>0.2888026186726541</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3925264174697944</v>
+        <v>0.2888026186726541</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3925264174697944</v>
+        <v>0.2888026186726541</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9745239826835818</v>
+        <v>0.8810050641504837</v>
       </c>
       <c r="I54" t="n">
-        <v>0.8600810424616265</v>
+        <v>0.8298027801836942</v>
       </c>
       <c r="J54" t="n">
         <v>6</v>
@@ -2294,28 +2294,28 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.3925264174697944</v>
+        <v>0.2888026186726541</v>
       </c>
       <c r="C55" t="n">
-        <v>0.008877991323661814</v>
+        <v>0.07714412977988144</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3925264174697944</v>
+        <v>0.2888026186726541</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3925264174697944</v>
+        <v>0.2888026186726541</v>
       </c>
       <c r="F55" t="n">
-        <v>0.3925264174697944</v>
+        <v>0.2888026186726541</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9745239826835818</v>
+        <v>0.8810050641504837</v>
       </c>
       <c r="I55" t="n">
-        <v>0.8600810424616265</v>
+        <v>0.8298027801836942</v>
       </c>
       <c r="J55" t="n">
         <v>6</v>
@@ -2328,28 +2328,28 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.03773798786312119</v>
+        <v>0.02233362517507998</v>
       </c>
       <c r="C56" t="n">
-        <v>0.02754858420763371</v>
+        <v>0.01533108159608657</v>
       </c>
       <c r="D56" t="n">
-        <v>0.02423253758600825</v>
+        <v>0.02131061503814009</v>
       </c>
       <c r="E56" t="n">
-        <v>0.02354295069710229</v>
+        <v>0.02752249279248247</v>
       </c>
       <c r="F56" t="n">
-        <v>0.03773798786312119</v>
+        <v>0.02233362517507998</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9745239826835818</v>
+        <v>0.8810050641504837</v>
       </c>
       <c r="I56" t="n">
-        <v>0.8600810424616265</v>
+        <v>0.8298027801836942</v>
       </c>
       <c r="J56" t="n">
         <v>6</v>
@@ -2362,28 +2362,28 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.3925264174697944</v>
+        <v>0.2888026186726541</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1015057790636167</v>
+        <v>0.05076878194072489</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3925264174697944</v>
+        <v>0.2888026186726541</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3925264174697944</v>
+        <v>0.2888026186726541</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3925264174697944</v>
+        <v>0.2888026186726541</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9745239826835818</v>
+        <v>0.8810050641504837</v>
       </c>
       <c r="I57" t="n">
-        <v>0.8600810424616265</v>
+        <v>0.8298027801836942</v>
       </c>
       <c r="J57" t="n">
         <v>6</v>
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.9176051009222738</v>
+        <v>0.8338655397797489</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2112013026987281</v>
+        <v>0.1324491170628826</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9844345667033639</v>
+        <v>0.9614850161581039</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9880149837927948</v>
+        <v>0.9831530660408856</v>
       </c>
       <c r="F58" t="n">
-        <v>0.8817089672472715</v>
+        <v>0.8768059831817032</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9962880677974493</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9538894791677412</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0.6912968471639382</v>
+        <v>0.6837096136498949</v>
       </c>
       <c r="J58" t="n">
         <v>7</v>
@@ -2433,25 +2433,25 @@
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2478161691682881</v>
+        <v>0.05870288692248195</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0.9964872470458943</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9962880677974493</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9686510066302123</v>
+        <v>0.9598381989435854</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9962880677974493</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9538894791677412</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0.6912968471639382</v>
+        <v>0.6837096136498949</v>
       </c>
       <c r="J59" t="n">
         <v>7</v>
@@ -2464,28 +2464,28 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.2172305836240128</v>
+        <v>0.2308409103563406</v>
       </c>
       <c r="C60" t="n">
-        <v>0.03707011132719839</v>
+        <v>0.02811021835925224</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1851292876414549</v>
+        <v>0.2228869880485999</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1538631983731008</v>
+        <v>0.1705985383364296</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2172159833065945</v>
+        <v>0.2104074776535135</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9962880677974493</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9538894791677412</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0.6912968471639382</v>
+        <v>0.6837096136498949</v>
       </c>
       <c r="J60" t="n">
         <v>7</v>
@@ -2498,28 +2498,28 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.2406704770519854</v>
+        <v>0.2400593741344142</v>
       </c>
       <c r="C61" t="n">
-        <v>0.04687240629668159</v>
+        <v>0.02537051236562467</v>
       </c>
       <c r="D61" t="n">
-        <v>0.2409956505102578</v>
+        <v>0.2402711109586362</v>
       </c>
       <c r="E61" t="n">
-        <v>0.2409956505102578</v>
+        <v>0.2400593741344142</v>
       </c>
       <c r="F61" t="n">
-        <v>0.2406704770519854</v>
+        <v>0.2408235945664006</v>
       </c>
       <c r="G61" t="n">
-        <v>0.9962880677974493</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9538894791677412</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0.6912968471639382</v>
+        <v>0.6837096136498949</v>
       </c>
       <c r="J61" t="n">
         <v>7</v>
@@ -2532,28 +2532,28 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.2406704770519854</v>
+        <v>0.2394022489234017</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06227799836902093</v>
+        <v>0.02095087017916236</v>
       </c>
       <c r="D62" t="n">
-        <v>0.2406704770519854</v>
+        <v>0.2387606569907575</v>
       </c>
       <c r="E62" t="n">
-        <v>0.2409956505102578</v>
+        <v>0.2400593741344142</v>
       </c>
       <c r="F62" t="n">
-        <v>0.2200983110810694</v>
+        <v>0.2373322257197132</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9962880677974493</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9538894791677412</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0.6912968471639382</v>
+        <v>0.6837096136498949</v>
       </c>
       <c r="J62" t="n">
         <v>7</v>
@@ -2566,28 +2566,28 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.2322262535808525</v>
+        <v>0.217089066584359</v>
       </c>
       <c r="C63" t="n">
-        <v>0.01408453898124308</v>
+        <v>0.02538278899574653</v>
       </c>
       <c r="D63" t="n">
-        <v>0.2373768939964008</v>
+        <v>0.233856310020066</v>
       </c>
       <c r="E63" t="n">
-        <v>0.2399487462394688</v>
+        <v>0.2351266996823461</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2331095127008516</v>
+        <v>0.217089066584359</v>
       </c>
       <c r="G63" t="n">
-        <v>0.9962880677974493</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.9538894791677412</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0.6912968471639382</v>
+        <v>0.6837096136498949</v>
       </c>
       <c r="J63" t="n">
         <v>7</v>
@@ -2600,28 +2600,28 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.02287210414393073</v>
+        <v>0.03860784468923628</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01827582594795856</v>
+        <v>0.01743743000090698</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0323726739305952</v>
+        <v>0.03631037600522882</v>
       </c>
       <c r="E64" t="n">
-        <v>0.028592630786329</v>
+        <v>0.04420839613347516</v>
       </c>
       <c r="F64" t="n">
-        <v>0.02287210414393073</v>
+        <v>0.03860784468923628</v>
       </c>
       <c r="G64" t="n">
-        <v>0.9962880677974493</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0.9538894791677412</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>0.6912968471639382</v>
+        <v>0.6837096136498949</v>
       </c>
       <c r="J64" t="n">
         <v>7</v>
@@ -2634,28 +2634,28 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2406704770519854</v>
+        <v>0.2400593741344142</v>
       </c>
       <c r="C65" t="n">
-        <v>0.04680122312950734</v>
+        <v>0.03160509523020941</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2406704770519854</v>
+        <v>0.2400593741344142</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2406704770519854</v>
+        <v>0.2400593741344142</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2406704770519854</v>
+        <v>0.2400593741344142</v>
       </c>
       <c r="G65" t="n">
-        <v>0.9962880677974493</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.9538894791677412</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0.6912968471639382</v>
+        <v>0.6837096136498949</v>
       </c>
       <c r="J65" t="n">
         <v>7</v>
@@ -2668,28 +2668,28 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.7655474028967014</v>
+        <v>0.8267548425101146</v>
       </c>
       <c r="C66" t="n">
-        <v>0.04941974932868811</v>
+        <v>0.06874921035255639</v>
       </c>
       <c r="D66" t="n">
-        <v>0.894136759018925</v>
+        <v>0.9724770101023829</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9269515007708586</v>
+        <v>0.9730279299940131</v>
       </c>
       <c r="F66" t="n">
-        <v>0.7071235135683451</v>
+        <v>0.827846931151317</v>
       </c>
       <c r="G66" t="n">
-        <v>0.7994366257357824</v>
+        <v>0.9917637401283876</v>
       </c>
       <c r="H66" t="n">
-        <v>0.9896696746665015</v>
+        <v>0.9483133520716315</v>
       </c>
       <c r="I66" t="n">
-        <v>0.611538928812513</v>
+        <v>0.6354369024213258</v>
       </c>
       <c r="J66" t="n">
         <v>8</v>
@@ -2702,28 +2702,28 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.9497608871837986</v>
+        <v>0.970834374818013</v>
       </c>
       <c r="C67" t="n">
-        <v>0.07135938676206424</v>
+        <v>0.1243213526613521</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9795636486369069</v>
+        <v>0.9731231324544034</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9795964434724294</v>
+        <v>0.9806574891695126</v>
       </c>
       <c r="F67" t="n">
-        <v>0.7694962384418698</v>
+        <v>0.8764655724008985</v>
       </c>
       <c r="G67" t="n">
-        <v>0.7994366257357824</v>
+        <v>0.9917637401283876</v>
       </c>
       <c r="H67" t="n">
-        <v>0.9896696746665015</v>
+        <v>0.9483133520716315</v>
       </c>
       <c r="I67" t="n">
-        <v>0.611538928812513</v>
+        <v>0.6354369024213258</v>
       </c>
       <c r="J67" t="n">
         <v>8</v>
@@ -2736,28 +2736,28 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1974836252221154</v>
+        <v>0.2003205782800131</v>
       </c>
       <c r="C68" t="n">
-        <v>0.02067078000299403</v>
+        <v>0.02102556968565163</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1743357089694744</v>
+        <v>0.2028915483797879</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1524524073870308</v>
+        <v>0.1784106179543548</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1939398928938564</v>
+        <v>0.2008128997141214</v>
       </c>
       <c r="G68" t="n">
-        <v>0.7994366257357824</v>
+        <v>0.9917637401283876</v>
       </c>
       <c r="H68" t="n">
-        <v>0.9896696746665015</v>
+        <v>0.9483133520716315</v>
       </c>
       <c r="I68" t="n">
-        <v>0.611538928812513</v>
+        <v>0.6354369024213258</v>
       </c>
       <c r="J68" t="n">
         <v>8</v>
@@ -2770,28 +2770,28 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1870561472541733</v>
+        <v>0.2171939698718726</v>
       </c>
       <c r="C69" t="n">
-        <v>0.01890023652746162</v>
+        <v>0.006323219426830454</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1978008862472883</v>
+        <v>0.2186095161714989</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1941654040326982</v>
+        <v>0.2193274703813811</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1907372166362407</v>
+        <v>0.2197411419273473</v>
       </c>
       <c r="G69" t="n">
-        <v>0.7994366257357824</v>
+        <v>0.9917637401283876</v>
       </c>
       <c r="H69" t="n">
-        <v>0.9896696746665015</v>
+        <v>0.9483133520716315</v>
       </c>
       <c r="I69" t="n">
-        <v>0.611538928812513</v>
+        <v>0.6354369024213258</v>
       </c>
       <c r="J69" t="n">
         <v>8</v>
@@ -2804,28 +2804,28 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.2055283908585151</v>
+        <v>0.2258784703622824</v>
       </c>
       <c r="C70" t="n">
-        <v>0.04020880526929861</v>
+        <v>0.03102622669108889</v>
       </c>
       <c r="D70" t="n">
-        <v>0.2051491738620138</v>
+        <v>0.2288844132748113</v>
       </c>
       <c r="E70" t="n">
-        <v>0.2021404489617022</v>
+        <v>0.2279364397150758</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1934843876177922</v>
+        <v>0.2052814362450575</v>
       </c>
       <c r="G70" t="n">
-        <v>0.7994366257357824</v>
+        <v>0.9917637401283876</v>
       </c>
       <c r="H70" t="n">
-        <v>0.9896696746665015</v>
+        <v>0.9483133520716315</v>
       </c>
       <c r="I70" t="n">
-        <v>0.611538928812513</v>
+        <v>0.6354369024213258</v>
       </c>
       <c r="J70" t="n">
         <v>8</v>
@@ -2838,28 +2838,28 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1933521060754023</v>
+        <v>0.2036352865063407</v>
       </c>
       <c r="C71" t="n">
-        <v>0.00367388344520624</v>
+        <v>0.01233516759580752</v>
       </c>
       <c r="D71" t="n">
-        <v>0.2008932179798813</v>
+        <v>0.2253910120712896</v>
       </c>
       <c r="E71" t="n">
-        <v>0.2014701457834016</v>
+        <v>0.2251610314532721</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1933521060754023</v>
+        <v>0.2036352865063407</v>
       </c>
       <c r="G71" t="n">
-        <v>0.7994366257357824</v>
+        <v>0.9917637401283876</v>
       </c>
       <c r="H71" t="n">
-        <v>0.9896696746665015</v>
+        <v>0.9483133520716315</v>
       </c>
       <c r="I71" t="n">
-        <v>0.611538928812513</v>
+        <v>0.6354369024213258</v>
       </c>
       <c r="J71" t="n">
         <v>8</v>
@@ -2872,28 +2872,28 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.02861341965369316</v>
+        <v>0.01787364864826348</v>
       </c>
       <c r="C72" t="n">
-        <v>0.02295548572313936</v>
+        <v>0.02000088967986277</v>
       </c>
       <c r="D72" t="n">
-        <v>0.02498498474128184</v>
+        <v>0.02089409489859782</v>
       </c>
       <c r="E72" t="n">
-        <v>0.02530046805710048</v>
+        <v>0.02187618038526506</v>
       </c>
       <c r="F72" t="n">
-        <v>0.02861341965369316</v>
+        <v>0.01787364864826348</v>
       </c>
       <c r="G72" t="n">
-        <v>0.7994366257357824</v>
+        <v>0.9917637401283876</v>
       </c>
       <c r="H72" t="n">
-        <v>0.9896696746665015</v>
+        <v>0.9483133520716315</v>
       </c>
       <c r="I72" t="n">
-        <v>0.611538928812513</v>
+        <v>0.6354369024213258</v>
       </c>
       <c r="J72" t="n">
         <v>8</v>
@@ -2906,28 +2906,28 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.2094085554480539</v>
+        <v>0.229809871599528</v>
       </c>
       <c r="C73" t="n">
-        <v>0.02068878890105297</v>
+        <v>0.01788019644031649</v>
       </c>
       <c r="D73" t="n">
-        <v>0.2094085554480539</v>
+        <v>0.2296193264616689</v>
       </c>
       <c r="E73" t="n">
-        <v>0.2094085554480539</v>
+        <v>0.229809871599528</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2094085554480539</v>
+        <v>0.2296193264616689</v>
       </c>
       <c r="G73" t="n">
-        <v>0.7994366257357824</v>
+        <v>0.9917637401283876</v>
       </c>
       <c r="H73" t="n">
-        <v>0.9896696746665015</v>
+        <v>0.9483133520716315</v>
       </c>
       <c r="I73" t="n">
-        <v>0.611538928812513</v>
+        <v>0.6354369024213258</v>
       </c>
       <c r="J73" t="n">
         <v>8</v>
@@ -2940,28 +2940,28 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.6551564978673673</v>
+        <v>0.5369781480681006</v>
       </c>
       <c r="C74" t="n">
-        <v>0.04364721665136746</v>
+        <v>0.0691326841558248</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6735951301691558</v>
+        <v>0.7298762358232883</v>
       </c>
       <c r="E74" t="n">
-        <v>0.7064548592877429</v>
+        <v>0.7442413066573358</v>
       </c>
       <c r="F74" t="n">
-        <v>0.7194574047351845</v>
+        <v>0.6836168923037218</v>
       </c>
       <c r="G74" t="n">
-        <v>0.004440816014316606</v>
+        <v>-0.0005782038418116477</v>
       </c>
       <c r="H74" t="n">
-        <v>0.9795335931481766</v>
+        <v>0.9039179606178184</v>
       </c>
       <c r="I74" t="n">
-        <v>0.4615994090126548</v>
+        <v>0.4634899087726486</v>
       </c>
       <c r="J74" t="n">
         <v>9</v>
@@ -2974,28 +2974,28 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.5928292546388996</v>
+        <v>0.6723439839832202</v>
       </c>
       <c r="C75" t="n">
-        <v>0.04740327037297282</v>
+        <v>0.04920237556063724</v>
       </c>
       <c r="D75" t="n">
-        <v>0.738529346694848</v>
+        <v>0.6740502621037507</v>
       </c>
       <c r="E75" t="n">
-        <v>0.7598385744018351</v>
+        <v>0.707363778753353</v>
       </c>
       <c r="F75" t="n">
-        <v>0.5827683162927288</v>
+        <v>0.719287373099488</v>
       </c>
       <c r="G75" t="n">
-        <v>0.004440816014316606</v>
+        <v>-0.0005782038418116477</v>
       </c>
       <c r="H75" t="n">
-        <v>0.9795335931481766</v>
+        <v>0.9039179606178184</v>
       </c>
       <c r="I75" t="n">
-        <v>0.4615994090126548</v>
+        <v>0.4634899087726486</v>
       </c>
       <c r="J75" t="n">
         <v>9</v>
@@ -3008,28 +3008,28 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.06266399868310812</v>
+        <v>0.09541931714804555</v>
       </c>
       <c r="C76" t="n">
-        <v>0.005743262788976048</v>
+        <v>0.01324435602480316</v>
       </c>
       <c r="D76" t="n">
-        <v>0.08161161342689538</v>
+        <v>0.1102323157979592</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0632553831251029</v>
+        <v>0.09130010997963987</v>
       </c>
       <c r="F76" t="n">
-        <v>0.05456863981664543</v>
+        <v>0.1045754751510979</v>
       </c>
       <c r="G76" t="n">
-        <v>0.004440816014316606</v>
+        <v>-0.0005782038418116477</v>
       </c>
       <c r="H76" t="n">
-        <v>0.9795335931481766</v>
+        <v>0.9039179606178184</v>
       </c>
       <c r="I76" t="n">
-        <v>0.4615994090126548</v>
+        <v>0.4634899087726486</v>
       </c>
       <c r="J76" t="n">
         <v>9</v>
@@ -3042,28 +3042,28 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.03283120208389838</v>
+        <v>0.02629443850668595</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.008502832693765578</v>
+        <v>0.01907641804334946</v>
       </c>
       <c r="D77" t="n">
-        <v>0.03231130806957275</v>
+        <v>0.03993752061639315</v>
       </c>
       <c r="E77" t="n">
-        <v>0.03270838534752096</v>
+        <v>0.04128653818100568</v>
       </c>
       <c r="F77" t="n">
-        <v>0.03484596300360223</v>
+        <v>0.03093230852031533</v>
       </c>
       <c r="G77" t="n">
-        <v>0.004440816014316606</v>
+        <v>-0.0005782038418116477</v>
       </c>
       <c r="H77" t="n">
-        <v>0.9795335931481766</v>
+        <v>0.9039179606178184</v>
       </c>
       <c r="I77" t="n">
-        <v>0.4615994090126548</v>
+        <v>0.4634899087726486</v>
       </c>
       <c r="J77" t="n">
         <v>9</v>
@@ -3076,28 +3076,28 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.09593051099808711</v>
+        <v>0.1363311628566798</v>
       </c>
       <c r="C78" t="n">
-        <v>0.00679963357174738</v>
+        <v>0.01810457204859423</v>
       </c>
       <c r="D78" t="n">
-        <v>0.09719022698238861</v>
+        <v>0.1333130481606057</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1017454805885064</v>
+        <v>0.1396200147354014</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09450942167934798</v>
+        <v>0.1431760335275981</v>
       </c>
       <c r="G78" t="n">
-        <v>0.004440816014316606</v>
+        <v>-0.0005782038418116477</v>
       </c>
       <c r="H78" t="n">
-        <v>0.9795335931481766</v>
+        <v>0.9039179606178184</v>
       </c>
       <c r="I78" t="n">
-        <v>0.4615994090126548</v>
+        <v>0.4634899087726486</v>
       </c>
       <c r="J78" t="n">
         <v>9</v>
@@ -3110,28 +3110,28 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.05934825899898331</v>
+        <v>0.1203644137118852</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.005146119030331532</v>
+        <v>0.01024011269302922</v>
       </c>
       <c r="D79" t="n">
-        <v>0.1129502972633966</v>
+        <v>0.1171418574438886</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1212819602734695</v>
+        <v>0.1247749678409482</v>
       </c>
       <c r="F79" t="n">
-        <v>0.07329819514753289</v>
+        <v>0.1134569361669456</v>
       </c>
       <c r="G79" t="n">
-        <v>0.004440816014316606</v>
+        <v>-0.0005782038418116477</v>
       </c>
       <c r="H79" t="n">
-        <v>0.9795335931481766</v>
+        <v>0.9039179606178184</v>
       </c>
       <c r="I79" t="n">
-        <v>0.4615994090126548</v>
+        <v>0.4634899087726486</v>
       </c>
       <c r="J79" t="n">
         <v>9</v>
@@ -3144,28 +3144,28 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.03510391020434299</v>
+        <v>0.03289039297524875</v>
       </c>
       <c r="C80" t="n">
-        <v>0.01035394673082165</v>
+        <v>0.008938888448571398</v>
       </c>
       <c r="D80" t="n">
-        <v>0.02465021028823923</v>
+        <v>0.01540985895119474</v>
       </c>
       <c r="E80" t="n">
-        <v>0.03571373834520934</v>
+        <v>0.02980908463720188</v>
       </c>
       <c r="F80" t="n">
-        <v>0.03510391020434299</v>
+        <v>0.03289039297524875</v>
       </c>
       <c r="G80" t="n">
-        <v>0.004440816014316606</v>
+        <v>-0.0005782038418116477</v>
       </c>
       <c r="H80" t="n">
-        <v>0.9795335931481766</v>
+        <v>0.9039179606178184</v>
       </c>
       <c r="I80" t="n">
-        <v>0.4615994090126548</v>
+        <v>0.4634899087726486</v>
       </c>
       <c r="J80" t="n">
         <v>9</v>
@@ -3178,28 +3178,28 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.1351679805544904</v>
+        <v>0.1465471603008989</v>
       </c>
       <c r="C81" t="n">
-        <v>0.01321194644765177</v>
+        <v>0.001767134847807438</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1338302516491648</v>
+        <v>0.1486104530575832</v>
       </c>
       <c r="E81" t="n">
-        <v>0.137266376819707</v>
+        <v>0.1471108307463747</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09884200870766366</v>
+        <v>0.1410388584403469</v>
       </c>
       <c r="G81" t="n">
-        <v>0.004440816014316606</v>
+        <v>-0.0005782038418116477</v>
       </c>
       <c r="H81" t="n">
-        <v>0.9795335931481766</v>
+        <v>0.9039179606178184</v>
       </c>
       <c r="I81" t="n">
-        <v>0.4615994090126548</v>
+        <v>0.4634899087726486</v>
       </c>
       <c r="J81" t="n">
         <v>9</v>
@@ -3212,28 +3212,28 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.9779104846573459</v>
+        <v>0.651096016516847</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1103713874971094</v>
+        <v>0.06221681481841677</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9937707018839944</v>
+        <v>0.7745999495131737</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9937707018839944</v>
+        <v>0.798184823767216</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9018659890675165</v>
+        <v>0.558645900495188</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0.897120438779902</v>
       </c>
       <c r="H82" t="n">
-        <v>0.8869482442338205</v>
+        <v>0.9506910405510369</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9263851879983391</v>
+        <v>0.6638143526488183</v>
       </c>
       <c r="J82" t="n">
         <v>11</v>
@@ -3246,28 +3246,28 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0.8835420964205174</v>
       </c>
       <c r="C83" t="n">
-        <v>0.2061702351593749</v>
+        <v>0.1533481004605569</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0.9297032359108103</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>0.9354608465249982</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9852567820144603</v>
+        <v>0.629128899584069</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0.897120438779902</v>
       </c>
       <c r="H83" t="n">
-        <v>0.8869482442338205</v>
+        <v>0.9506910405510369</v>
       </c>
       <c r="I83" t="n">
-        <v>0.9263851879983391</v>
+        <v>0.6638143526488183</v>
       </c>
       <c r="J83" t="n">
         <v>11</v>
@@ -3280,28 +3280,28 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.3569335020968123</v>
+        <v>0.1296086901928082</v>
       </c>
       <c r="C84" t="n">
-        <v>0.05325461066034602</v>
+        <v>0.02059172103631771</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3621148907547507</v>
+        <v>0.1327966690909547</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3603649953962284</v>
+        <v>0.1178693915201193</v>
       </c>
       <c r="F84" t="n">
-        <v>0.3637887373349424</v>
+        <v>0.1113235552348945</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0.897120438779902</v>
       </c>
       <c r="H84" t="n">
-        <v>0.8869482442338205</v>
+        <v>0.9506910405510369</v>
       </c>
       <c r="I84" t="n">
-        <v>0.9263851879983391</v>
+        <v>0.6638143526488183</v>
       </c>
       <c r="J84" t="n">
         <v>11</v>
@@ -3314,28 +3314,28 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.4074230426771405</v>
+        <v>0.1717071327083186</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1337737552339101</v>
+        <v>0.05712501124160132</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4074230426771405</v>
+        <v>0.1715778905291486</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4074230426771405</v>
+        <v>0.1710934840249698</v>
       </c>
       <c r="F85" t="n">
-        <v>0.4074230426771405</v>
+        <v>0.172766880093966</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0.897120438779902</v>
       </c>
       <c r="H85" t="n">
-        <v>0.8869482442338205</v>
+        <v>0.9506910405510369</v>
       </c>
       <c r="I85" t="n">
-        <v>0.9263851879983391</v>
+        <v>0.6638143526488183</v>
       </c>
       <c r="J85" t="n">
         <v>11</v>
@@ -3348,28 +3348,28 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.367778953203974</v>
+        <v>0.1595792780194392</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1001041490621021</v>
+        <v>0.04303284594583939</v>
       </c>
       <c r="D86" t="n">
-        <v>0.367778953203974</v>
+        <v>0.1710094988196296</v>
       </c>
       <c r="E86" t="n">
-        <v>0.367778953203974</v>
+        <v>0.1642112963530457</v>
       </c>
       <c r="F86" t="n">
-        <v>0.367778953203974</v>
+        <v>0.1627790309913786</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0.897120438779902</v>
       </c>
       <c r="H86" t="n">
-        <v>0.8869482442338205</v>
+        <v>0.9506910405510369</v>
       </c>
       <c r="I86" t="n">
-        <v>0.9263851879983391</v>
+        <v>0.6638143526488183</v>
       </c>
       <c r="J86" t="n">
         <v>11</v>
@@ -3382,28 +3382,28 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.4048445895728173</v>
+        <v>0.151652842119761</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1072392212564912</v>
+        <v>0.02066779611619587</v>
       </c>
       <c r="D87" t="n">
-        <v>0.4040883198773971</v>
+        <v>0.1704657230802475</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4040883198773971</v>
+        <v>0.1703678111082001</v>
       </c>
       <c r="F87" t="n">
-        <v>0.4048445895728173</v>
+        <v>0.151652842119761</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0.897120438779902</v>
       </c>
       <c r="H87" t="n">
-        <v>0.8869482442338205</v>
+        <v>0.9506910405510369</v>
       </c>
       <c r="I87" t="n">
-        <v>0.9263851879983391</v>
+        <v>0.6638143526488183</v>
       </c>
       <c r="J87" t="n">
         <v>11</v>
@@ -3416,28 +3416,28 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.05089932809316269</v>
+        <v>0.008241756179901251</v>
       </c>
       <c r="C88" t="n">
-        <v>0.05645086585336399</v>
+        <v>0.01835548690068321</v>
       </c>
       <c r="D88" t="n">
-        <v>0.04550015915112518</v>
+        <v>0.00722865667513334</v>
       </c>
       <c r="E88" t="n">
-        <v>0.03947124210758891</v>
+        <v>0.01415157786470254</v>
       </c>
       <c r="F88" t="n">
-        <v>0.05089932809316269</v>
+        <v>0.008241756179901251</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0.897120438779902</v>
       </c>
       <c r="H88" t="n">
-        <v>0.8869482442338205</v>
+        <v>0.9506910405510369</v>
       </c>
       <c r="I88" t="n">
-        <v>0.9263851879983391</v>
+        <v>0.6638143526488183</v>
       </c>
       <c r="J88" t="n">
         <v>11</v>
@@ -3450,28 +3450,28 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.3857657765304129</v>
+        <v>0.1372545957739262</v>
       </c>
       <c r="C89" t="n">
-        <v>0.143691040356067</v>
+        <v>0.02757516006495227</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4097069837482888</v>
+        <v>0.1520327712184314</v>
       </c>
       <c r="E89" t="n">
-        <v>0.3909421187635947</v>
+        <v>0.1505127077099332</v>
       </c>
       <c r="F89" t="n">
-        <v>0.3987391932879014</v>
+        <v>0.1409194876880445</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0.897120438779902</v>
       </c>
       <c r="H89" t="n">
-        <v>0.8869482442338205</v>
+        <v>0.9506910405510369</v>
       </c>
       <c r="I89" t="n">
-        <v>0.9263851879983391</v>
+        <v>0.6638143526488183</v>
       </c>
       <c r="J89" t="n">
         <v>11</v>
@@ -3484,28 +3484,28 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.8949320134393497</v>
+        <v>0.8963690099540338</v>
       </c>
       <c r="C90" t="n">
-        <v>0.2665622957099849</v>
+        <v>0.1146316321944965</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9429547933313305</v>
+        <v>0.9478416372690528</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9525107311650733</v>
+        <v>0.9513177451891878</v>
       </c>
       <c r="F90" t="n">
-        <v>0.7480711627148674</v>
+        <v>0.738440666874431</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0.9965555791121353</v>
       </c>
       <c r="H90" t="n">
-        <v>0.8796994129565224</v>
+        <v>0.7691953701258801</v>
       </c>
       <c r="I90" t="n">
-        <v>0.84390780498747</v>
+        <v>0.8373001844171947</v>
       </c>
       <c r="J90" t="n">
         <v>12</v>
@@ -3518,28 +3518,28 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.990742161139978</v>
+        <v>0.9847231967583955</v>
       </c>
       <c r="C91" t="n">
-        <v>0.08364572029644445</v>
+        <v>0.1153449176465545</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9266292564909484</v>
+        <v>0.9932240450775121</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9301535962216171</v>
+        <v>0.9932240450775121</v>
       </c>
       <c r="F91" t="n">
-        <v>0.6979686233945172</v>
+        <v>0.8770570741112692</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0.9965555791121353</v>
       </c>
       <c r="H91" t="n">
-        <v>0.8796994129565224</v>
+        <v>0.7691953701258801</v>
       </c>
       <c r="I91" t="n">
-        <v>0.84390780498747</v>
+        <v>0.8373001844171947</v>
       </c>
       <c r="J91" t="n">
         <v>12</v>
@@ -3552,28 +3552,28 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.2574172342885507</v>
+        <v>0.2513763669999262</v>
       </c>
       <c r="C92" t="n">
-        <v>0.08569533158041479</v>
+        <v>0.03749318626056006</v>
       </c>
       <c r="D92" t="n">
-        <v>0.2583716307164735</v>
+        <v>0.258390740047028</v>
       </c>
       <c r="E92" t="n">
-        <v>0.2639791073972593</v>
+        <v>0.2532942219730887</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2596170383904935</v>
+        <v>0.2515680500406955</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0.9965555791121353</v>
       </c>
       <c r="H92" t="n">
-        <v>0.8796994129565224</v>
+        <v>0.7691953701258801</v>
       </c>
       <c r="I92" t="n">
-        <v>0.84390780498747</v>
+        <v>0.8373001844171947</v>
       </c>
       <c r="J92" t="n">
         <v>12</v>
@@ -3586,28 +3586,28 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.2705229333743286</v>
+        <v>0.243043182034217</v>
       </c>
       <c r="C93" t="n">
-        <v>0.02348963034483839</v>
+        <v>0.02083950652662901</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2705229333743286</v>
+        <v>0.243043182034217</v>
       </c>
       <c r="E93" t="n">
-        <v>0.2705229333743286</v>
+        <v>0.243043182034217</v>
       </c>
       <c r="F93" t="n">
-        <v>0.2705229333743286</v>
+        <v>0.243043182034217</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>0.9965555791121353</v>
       </c>
       <c r="H93" t="n">
-        <v>0.8796994129565224</v>
+        <v>0.7691953701258801</v>
       </c>
       <c r="I93" t="n">
-        <v>0.84390780498747</v>
+        <v>0.8373001844171947</v>
       </c>
       <c r="J93" t="n">
         <v>12</v>
@@ -3620,28 +3620,28 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.2705229333743286</v>
+        <v>0.2681025038826396</v>
       </c>
       <c r="C94" t="n">
-        <v>0.07880203999132421</v>
+        <v>0.06433117470914261</v>
       </c>
       <c r="D94" t="n">
-        <v>0.2705229333743286</v>
+        <v>0.2681025038826396</v>
       </c>
       <c r="E94" t="n">
-        <v>0.2705229333743286</v>
+        <v>0.2681025038826396</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2705229333743286</v>
+        <v>0.2680260870866835</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0.9965555791121353</v>
       </c>
       <c r="H94" t="n">
-        <v>0.8796994129565224</v>
+        <v>0.7691953701258801</v>
       </c>
       <c r="I94" t="n">
-        <v>0.84390780498747</v>
+        <v>0.8373001844171947</v>
       </c>
       <c r="J94" t="n">
         <v>12</v>
@@ -3654,28 +3654,28 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.2705229333743286</v>
+        <v>0.2702353298615569</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1244243652842162</v>
+        <v>0.05161589016119914</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2705229333743286</v>
+        <v>0.2702353298615569</v>
       </c>
       <c r="E95" t="n">
-        <v>0.2705229333743286</v>
+        <v>0.2702353298615569</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2705229333743286</v>
+        <v>0.2702353298615569</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0.9965555791121353</v>
       </c>
       <c r="H95" t="n">
-        <v>0.8796994129565224</v>
+        <v>0.7691953701258801</v>
       </c>
       <c r="I95" t="n">
-        <v>0.84390780498747</v>
+        <v>0.8373001844171947</v>
       </c>
       <c r="J95" t="n">
         <v>12</v>
@@ -3688,28 +3688,28 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.04030596973560586</v>
+        <v>0.03050499490710846</v>
       </c>
       <c r="C96" t="n">
-        <v>0.02869076237270975</v>
+        <v>0.01751200737632953</v>
       </c>
       <c r="D96" t="n">
-        <v>0.02782357229824083</v>
+        <v>0.02907418883549028</v>
       </c>
       <c r="E96" t="n">
-        <v>0.02712635145338686</v>
+        <v>0.03603413847749103</v>
       </c>
       <c r="F96" t="n">
-        <v>0.04030596973560586</v>
+        <v>0.03050499490710846</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0.9965555791121353</v>
       </c>
       <c r="H96" t="n">
-        <v>0.8796994129565224</v>
+        <v>0.7691953701258801</v>
       </c>
       <c r="I96" t="n">
-        <v>0.84390780498747</v>
+        <v>0.8373001844171947</v>
       </c>
       <c r="J96" t="n">
         <v>12</v>
@@ -3722,28 +3722,28 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.2049933791809345</v>
+        <v>0.251824448004791</v>
       </c>
       <c r="C97" t="n">
-        <v>0.07103593605696878</v>
+        <v>0.04344880395186124</v>
       </c>
       <c r="D97" t="n">
-        <v>0.2182385792280412</v>
+        <v>0.2257600735044738</v>
       </c>
       <c r="E97" t="n">
-        <v>0.2074122014810569</v>
+        <v>0.2315800890563877</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2158602766899362</v>
+        <v>0.233879350444459</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0.9965555791121353</v>
       </c>
       <c r="H97" t="n">
-        <v>0.8796994129565224</v>
+        <v>0.7691953701258801</v>
       </c>
       <c r="I97" t="n">
-        <v>0.84390780498747</v>
+        <v>0.8373001844171947</v>
       </c>
       <c r="J97" t="n">
         <v>12</v>
@@ -3756,28 +3756,28 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.7054648445876075</v>
+        <v>0.9040976202177721</v>
       </c>
       <c r="C98" t="n">
-        <v>0.07858172613745858</v>
+        <v>0.1715000764865392</v>
       </c>
       <c r="D98" t="n">
-        <v>0.7923049254600149</v>
+        <v>0.9705195323189273</v>
       </c>
       <c r="E98" t="n">
-        <v>0.8120463741822366</v>
+        <v>0.970891853817878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.6335738034814833</v>
+        <v>0.7708550178369141</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0.76145815750316</v>
+        <v>0.9516571965884655</v>
       </c>
       <c r="I98" t="n">
-        <v>0.8250651249146065</v>
+        <v>0.8536724649041515</v>
       </c>
       <c r="J98" t="n">
         <v>13</v>
@@ -3790,28 +3790,28 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.8226843097343265</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>0.08393790084365341</v>
+        <v>0.3066641197872927</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8735642400323718</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8740021778978342</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.7287495060088893</v>
+        <v>0.9965221026729235</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0.76145815750316</v>
+        <v>0.9516571965884655</v>
       </c>
       <c r="I99" t="n">
-        <v>0.8250651249146065</v>
+        <v>0.8536724649041515</v>
       </c>
       <c r="J99" t="n">
         <v>13</v>
@@ -3824,28 +3824,28 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.2282606097067156</v>
+        <v>0.2900543455748719</v>
       </c>
       <c r="C100" t="n">
-        <v>0.04269145591798822</v>
+        <v>0.05635217513046885</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2418867409502717</v>
+        <v>0.2817139103576185</v>
       </c>
       <c r="E100" t="n">
-        <v>0.2311575017426462</v>
+        <v>0.2428428775101115</v>
       </c>
       <c r="F100" t="n">
-        <v>0.235541751431553</v>
+        <v>0.299194925983156</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0.76145815750316</v>
+        <v>0.9516571965884655</v>
       </c>
       <c r="I100" t="n">
-        <v>0.8250651249146065</v>
+        <v>0.8536724649041515</v>
       </c>
       <c r="J100" t="n">
         <v>13</v>
@@ -3858,28 +3858,28 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.269676195904371</v>
+        <v>0.3131919879495608</v>
       </c>
       <c r="C101" t="n">
-        <v>0.04146354820003391</v>
+        <v>0.0573588042613704</v>
       </c>
       <c r="D101" t="n">
-        <v>0.269676195904371</v>
+        <v>0.3131919879495608</v>
       </c>
       <c r="E101" t="n">
-        <v>0.269676195904371</v>
+        <v>0.3131919879495608</v>
       </c>
       <c r="F101" t="n">
-        <v>0.269676195904371</v>
+        <v>0.3131919879495608</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.76145815750316</v>
+        <v>0.9516571965884655</v>
       </c>
       <c r="I101" t="n">
-        <v>0.8250651249146065</v>
+        <v>0.8536724649041515</v>
       </c>
       <c r="J101" t="n">
         <v>13</v>
@@ -3892,28 +3892,28 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.2705371080708018</v>
+        <v>0.3131919879495608</v>
       </c>
       <c r="C102" t="n">
-        <v>0.06080538884530118</v>
+        <v>0.08921864306913954</v>
       </c>
       <c r="D102" t="n">
-        <v>0.269676195904371</v>
+        <v>0.2748625481524284</v>
       </c>
       <c r="E102" t="n">
-        <v>0.26955631865519</v>
+        <v>0.2765947430640284</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2677257296421657</v>
+        <v>0.3131919879495608</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0.76145815750316</v>
+        <v>0.9516571965884655</v>
       </c>
       <c r="I102" t="n">
-        <v>0.8250651249146065</v>
+        <v>0.8536724649041515</v>
       </c>
       <c r="J102" t="n">
         <v>13</v>
@@ -3926,28 +3926,28 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.2355827785687735</v>
+        <v>0.2580800792724313</v>
       </c>
       <c r="C103" t="n">
-        <v>0.09641933175012171</v>
+        <v>0.05058517068817259</v>
       </c>
       <c r="D103" t="n">
-        <v>0.2407858116605286</v>
+        <v>0.2533876518406372</v>
       </c>
       <c r="E103" t="n">
-        <v>0.2340194996023076</v>
+        <v>0.2606098787728962</v>
       </c>
       <c r="F103" t="n">
-        <v>0.2355827785687735</v>
+        <v>0.2580800792724313</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0.76145815750316</v>
+        <v>0.9516571965884655</v>
       </c>
       <c r="I103" t="n">
-        <v>0.8250651249146065</v>
+        <v>0.8536724649041515</v>
       </c>
       <c r="J103" t="n">
         <v>13</v>
@@ -3960,28 +3960,28 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.02583656519819958</v>
+        <v>0.0530865919961059</v>
       </c>
       <c r="C104" t="n">
-        <v>0.03832463589139373</v>
+        <v>0.03531308580770707</v>
       </c>
       <c r="D104" t="n">
-        <v>0.02286441989586126</v>
+        <v>0.05591335031949949</v>
       </c>
       <c r="E104" t="n">
-        <v>0.02228451800214242</v>
+        <v>0.05985374570242182</v>
       </c>
       <c r="F104" t="n">
-        <v>0.02583656519819958</v>
+        <v>0.0530865919961059</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0.76145815750316</v>
+        <v>0.9516571965884655</v>
       </c>
       <c r="I104" t="n">
-        <v>0.8250651249146065</v>
+        <v>0.8536724649041515</v>
       </c>
       <c r="J104" t="n">
         <v>13</v>
@@ -3994,28 +3994,28 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.2467431752190878</v>
+        <v>0.2886689083926715</v>
       </c>
       <c r="C105" t="n">
-        <v>0.06104465083769446</v>
+        <v>0.07513887976657282</v>
       </c>
       <c r="D105" t="n">
-        <v>0.2273682306515358</v>
+        <v>0.3030273977043938</v>
       </c>
       <c r="E105" t="n">
-        <v>0.2205432706279605</v>
+        <v>0.2933091533333366</v>
       </c>
       <c r="F105" t="n">
-        <v>0.217362604934684</v>
+        <v>0.2968848109276978</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>0.76145815750316</v>
+        <v>0.9516571965884655</v>
       </c>
       <c r="I105" t="n">
-        <v>0.8250651249146065</v>
+        <v>0.8536724649041515</v>
       </c>
       <c r="J105" t="n">
         <v>13</v>
@@ -4028,28 +4028,28 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.5986716995712806</v>
+        <v>0.623832989124812</v>
       </c>
       <c r="C106" t="n">
-        <v>0.08184541493386817</v>
+        <v>0.04457781632591939</v>
       </c>
       <c r="D106" t="n">
-        <v>0.7707064641461198</v>
+        <v>0.745356961708872</v>
       </c>
       <c r="E106" t="n">
-        <v>0.7914150898816156</v>
+        <v>0.7733364171251733</v>
       </c>
       <c r="F106" t="n">
-        <v>0.5123177353548348</v>
+        <v>0.6630680039061981</v>
       </c>
       <c r="G106" t="n">
-        <v>0.7514701151369084</v>
+        <v>0.7344209040815405</v>
       </c>
       <c r="H106" t="n">
-        <v>0.9264902241933477</v>
+        <v>0.9646976000091169</v>
       </c>
       <c r="I106" t="n">
-        <v>0.6133644392617728</v>
+        <v>0.6238918016397161</v>
       </c>
       <c r="J106" t="n">
         <v>14</v>
@@ -4062,28 +4062,28 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.7538910348221194</v>
+        <v>0.8236227777064515</v>
       </c>
       <c r="C107" t="n">
-        <v>0.05649409819029551</v>
+        <v>0.08783170531389098</v>
       </c>
       <c r="D107" t="n">
-        <v>0.767485489365559</v>
+        <v>0.838584340930429</v>
       </c>
       <c r="E107" t="n">
-        <v>0.7975593499846338</v>
+        <v>0.8597379353425844</v>
       </c>
       <c r="F107" t="n">
-        <v>0.6474194329116882</v>
+        <v>0.722925746334601</v>
       </c>
       <c r="G107" t="n">
-        <v>0.7514701151369084</v>
+        <v>0.7344209040815405</v>
       </c>
       <c r="H107" t="n">
-        <v>0.9264902241933477</v>
+        <v>0.9646976000091169</v>
       </c>
       <c r="I107" t="n">
-        <v>0.6133644392617728</v>
+        <v>0.6238918016397161</v>
       </c>
       <c r="J107" t="n">
         <v>14</v>
@@ -4096,28 +4096,28 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.1285872493569303</v>
+        <v>0.1393319423090319</v>
       </c>
       <c r="C108" t="n">
-        <v>0.01707957835892143</v>
+        <v>0.02432600534418088</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1322062270038424</v>
+        <v>0.1670508225357894</v>
       </c>
       <c r="E108" t="n">
-        <v>0.1077309052687005</v>
+        <v>0.1471341501365231</v>
       </c>
       <c r="F108" t="n">
-        <v>0.1272834313414598</v>
+        <v>0.1245584772821378</v>
       </c>
       <c r="G108" t="n">
-        <v>0.7514701151369084</v>
+        <v>0.7344209040815405</v>
       </c>
       <c r="H108" t="n">
-        <v>0.9264902241933477</v>
+        <v>0.9646976000091169</v>
       </c>
       <c r="I108" t="n">
-        <v>0.6133644392617728</v>
+        <v>0.6238918016397161</v>
       </c>
       <c r="J108" t="n">
         <v>14</v>
@@ -4130,28 +4130,28 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.1462997538344521</v>
+        <v>0.1724610547825405</v>
       </c>
       <c r="C109" t="n">
-        <v>0.03026016891903967</v>
+        <v>0.02528344963700094</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1401146390769841</v>
+        <v>0.1710665991066046</v>
       </c>
       <c r="E109" t="n">
-        <v>0.1488890286076088</v>
+        <v>0.1727232744930083</v>
       </c>
       <c r="F109" t="n">
-        <v>0.1284326148607982</v>
+        <v>0.1406903433289554</v>
       </c>
       <c r="G109" t="n">
-        <v>0.7514701151369084</v>
+        <v>0.7344209040815405</v>
       </c>
       <c r="H109" t="n">
-        <v>0.9264902241933477</v>
+        <v>0.9646976000091169</v>
       </c>
       <c r="I109" t="n">
-        <v>0.6133644392617728</v>
+        <v>0.6238918016397161</v>
       </c>
       <c r="J109" t="n">
         <v>14</v>
@@ -4164,28 +4164,28 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.133098308977171</v>
+        <v>0.1578390510154139</v>
       </c>
       <c r="C110" t="n">
-        <v>0.005438446266290344</v>
+        <v>0.008923884682926249</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1448234801780557</v>
+        <v>0.1770195488884652</v>
       </c>
       <c r="E110" t="n">
-        <v>0.1410820552277246</v>
+        <v>0.1693104213523119</v>
       </c>
       <c r="F110" t="n">
-        <v>0.1171703833245961</v>
+        <v>0.1312562336972009</v>
       </c>
       <c r="G110" t="n">
-        <v>0.7514701151369084</v>
+        <v>0.7344209040815405</v>
       </c>
       <c r="H110" t="n">
-        <v>0.9264902241933477</v>
+        <v>0.9646976000091169</v>
       </c>
       <c r="I110" t="n">
-        <v>0.6133644392617728</v>
+        <v>0.6238918016397161</v>
       </c>
       <c r="J110" t="n">
         <v>14</v>
@@ -4198,28 +4198,28 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.1038139749840956</v>
+        <v>0.1604004984112955</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0186495125941314</v>
+        <v>0.0008822750562006154</v>
       </c>
       <c r="D111" t="n">
-        <v>0.130512964022819</v>
+        <v>0.1727684473444036</v>
       </c>
       <c r="E111" t="n">
-        <v>0.1319310475451696</v>
+        <v>0.1753269612577571</v>
       </c>
       <c r="F111" t="n">
-        <v>0.1038139749840956</v>
+        <v>0.1604004984112955</v>
       </c>
       <c r="G111" t="n">
-        <v>0.7514701151369084</v>
+        <v>0.7344209040815405</v>
       </c>
       <c r="H111" t="n">
-        <v>0.9264902241933477</v>
+        <v>0.9646976000091169</v>
       </c>
       <c r="I111" t="n">
-        <v>0.6133644392617728</v>
+        <v>0.6238918016397161</v>
       </c>
       <c r="J111" t="n">
         <v>14</v>
@@ -4232,28 +4232,28 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.02186110359882468</v>
+        <v>0.02237074719994162</v>
       </c>
       <c r="C112" t="n">
-        <v>0.02242446594169502</v>
+        <v>0.02037216762028026</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0223216030252501</v>
+        <v>0.02471116353518349</v>
       </c>
       <c r="E112" t="n">
-        <v>0.02159947654986267</v>
+        <v>0.02963276987223008</v>
       </c>
       <c r="F112" t="n">
-        <v>0.02186110359882468</v>
+        <v>0.02237074719994162</v>
       </c>
       <c r="G112" t="n">
-        <v>0.7514701151369084</v>
+        <v>0.7344209040815405</v>
       </c>
       <c r="H112" t="n">
-        <v>0.9264902241933477</v>
+        <v>0.9646976000091169</v>
       </c>
       <c r="I112" t="n">
-        <v>0.6133644392617728</v>
+        <v>0.6238918016397161</v>
       </c>
       <c r="J112" t="n">
         <v>14</v>
@@ -4266,28 +4266,28 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.1061913860702077</v>
+        <v>0.1478417483637967</v>
       </c>
       <c r="C113" t="n">
-        <v>0.01667195464592786</v>
+        <v>0.02066899416154314</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1079893759967104</v>
+        <v>0.1409343389630316</v>
       </c>
       <c r="E113" t="n">
-        <v>0.1029630185131324</v>
+        <v>0.140750923708418</v>
       </c>
       <c r="F113" t="n">
-        <v>0.1138199967351206</v>
+        <v>0.1386948293511457</v>
       </c>
       <c r="G113" t="n">
-        <v>0.7514701151369084</v>
+        <v>0.7344209040815405</v>
       </c>
       <c r="H113" t="n">
-        <v>0.9264902241933477</v>
+        <v>0.9646976000091169</v>
       </c>
       <c r="I113" t="n">
-        <v>0.6133644392617728</v>
+        <v>0.6238918016397161</v>
       </c>
       <c r="J113" t="n">
         <v>14</v>
@@ -4300,28 +4300,28 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.5219537028139442</v>
+        <v>0.3283088539427916</v>
       </c>
       <c r="C114" t="n">
-        <v>0.03387432641155412</v>
+        <v>0.04783296615037629</v>
       </c>
       <c r="D114" t="n">
-        <v>0.4864492210282093</v>
+        <v>0.372451424320301</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5145896483104646</v>
+        <v>0.3682937378134206</v>
       </c>
       <c r="F114" t="n">
-        <v>0.4639902959176857</v>
+        <v>0.3541266985635603</v>
       </c>
       <c r="G114" t="n">
-        <v>0.220247400022819</v>
+        <v>0.005845148881585829</v>
       </c>
       <c r="H114" t="n">
-        <v>0.932336410363639</v>
+        <v>0.9499416777592511</v>
       </c>
       <c r="I114" t="n">
-        <v>0.5645689663844163</v>
+        <v>0.365656725095067</v>
       </c>
       <c r="J114" t="n">
         <v>15</v>
@@ -4334,28 +4334,28 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.6838353912593713</v>
+        <v>0.3722774669982873</v>
       </c>
       <c r="C115" t="n">
-        <v>0.04998028442298417</v>
+        <v>0.01676271229046011</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7391477655041597</v>
+        <v>0.3326002687073707</v>
       </c>
       <c r="E115" t="n">
-        <v>0.7507150473710331</v>
+        <v>0.3396963271414737</v>
       </c>
       <c r="F115" t="n">
-        <v>0.5663261397973176</v>
+        <v>0.3400846156938917</v>
       </c>
       <c r="G115" t="n">
-        <v>0.220247400022819</v>
+        <v>0.005845148881585829</v>
       </c>
       <c r="H115" t="n">
-        <v>0.932336410363639</v>
+        <v>0.9499416777592511</v>
       </c>
       <c r="I115" t="n">
-        <v>0.5645689663844163</v>
+        <v>0.365656725095067</v>
       </c>
       <c r="J115" t="n">
         <v>15</v>
@@ -4368,28 +4368,28 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.08340136591586574</v>
+        <v>0.02900445624983066</v>
       </c>
       <c r="C116" t="n">
-        <v>0.02001165697260106</v>
+        <v>0.01847461933097273</v>
       </c>
       <c r="D116" t="n">
-        <v>0.08403104824418126</v>
+        <v>0.04081847470462435</v>
       </c>
       <c r="E116" t="n">
-        <v>0.07172217101412001</v>
+        <v>0.03538437578228433</v>
       </c>
       <c r="F116" t="n">
-        <v>0.08061153313315753</v>
+        <v>0.03527189187974834</v>
       </c>
       <c r="G116" t="n">
-        <v>0.220247400022819</v>
+        <v>0.005845148881585829</v>
       </c>
       <c r="H116" t="n">
-        <v>0.932336410363639</v>
+        <v>0.9499416777592511</v>
       </c>
       <c r="I116" t="n">
-        <v>0.5645689663844163</v>
+        <v>0.365656725095067</v>
       </c>
       <c r="J116" t="n">
         <v>15</v>
@@ -4402,28 +4402,28 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.06482205641641556</v>
+        <v>0.004147342090480137</v>
       </c>
       <c r="C117" t="n">
-        <v>0.01475679660871744</v>
+        <v>-0.004389933756887733</v>
       </c>
       <c r="D117" t="n">
-        <v>0.07270209359643093</v>
+        <v>-0.00204383039479844</v>
       </c>
       <c r="E117" t="n">
-        <v>0.06920860148542465</v>
+        <v>-0.0008133757002972518</v>
       </c>
       <c r="F117" t="n">
-        <v>0.05651029593221253</v>
+        <v>0.0006788968748630254</v>
       </c>
       <c r="G117" t="n">
-        <v>0.220247400022819</v>
+        <v>0.005845148881585829</v>
       </c>
       <c r="H117" t="n">
-        <v>0.932336410363639</v>
+        <v>0.9499416777592511</v>
       </c>
       <c r="I117" t="n">
-        <v>0.5645689663844163</v>
+        <v>0.365656725095067</v>
       </c>
       <c r="J117" t="n">
         <v>15</v>
@@ -4436,28 +4436,28 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.06816548855567688</v>
+        <v>0.03253356497658858</v>
       </c>
       <c r="C118" t="n">
-        <v>0.01242147844145831</v>
+        <v>-0.000157064422920569</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0960891913560067</v>
+        <v>0.06068023221727524</v>
       </c>
       <c r="E118" t="n">
-        <v>0.08833142862282294</v>
+        <v>0.05748503490558885</v>
       </c>
       <c r="F118" t="n">
-        <v>0.07331643672413453</v>
+        <v>0.05591372052892109</v>
       </c>
       <c r="G118" t="n">
-        <v>0.220247400022819</v>
+        <v>0.005845148881585829</v>
       </c>
       <c r="H118" t="n">
-        <v>0.932336410363639</v>
+        <v>0.9499416777592511</v>
       </c>
       <c r="I118" t="n">
-        <v>0.5645689663844163</v>
+        <v>0.365656725095067</v>
       </c>
       <c r="J118" t="n">
         <v>15</v>
@@ -4470,28 +4470,28 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.08707311136744336</v>
+        <v>0.03798634932782723</v>
       </c>
       <c r="C119" t="n">
-        <v>0.01625178625556762</v>
+        <v>-0.001905506207596652</v>
       </c>
       <c r="D119" t="n">
-        <v>0.100148659985267</v>
+        <v>0.03632239491129652</v>
       </c>
       <c r="E119" t="n">
-        <v>0.09942399940727045</v>
+        <v>0.04181578957064937</v>
       </c>
       <c r="F119" t="n">
-        <v>0.08707311136744336</v>
+        <v>0.0372507024463057</v>
       </c>
       <c r="G119" t="n">
-        <v>0.220247400022819</v>
+        <v>0.005845148881585829</v>
       </c>
       <c r="H119" t="n">
-        <v>0.932336410363639</v>
+        <v>0.9499416777592511</v>
       </c>
       <c r="I119" t="n">
-        <v>0.5645689663844163</v>
+        <v>0.365656725095067</v>
       </c>
       <c r="J119" t="n">
         <v>15</v>
@@ -4504,28 +4504,28 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.02143738374831824</v>
+        <v>0.01356267898418273</v>
       </c>
       <c r="C120" t="n">
-        <v>0.011878630116142</v>
+        <v>0.02190261371965617</v>
       </c>
       <c r="D120" t="n">
-        <v>0.01902510844920847</v>
+        <v>0.009757092066521166</v>
       </c>
       <c r="E120" t="n">
-        <v>0.01538455072469407</v>
+        <v>0.01458349640132105</v>
       </c>
       <c r="F120" t="n">
-        <v>0.02143738374831824</v>
+        <v>0.01356267898418273</v>
       </c>
       <c r="G120" t="n">
-        <v>0.220247400022819</v>
+        <v>0.005845148881585829</v>
       </c>
       <c r="H120" t="n">
-        <v>0.932336410363639</v>
+        <v>0.9499416777592511</v>
       </c>
       <c r="I120" t="n">
-        <v>0.5645689663844163</v>
+        <v>0.365656725095067</v>
       </c>
       <c r="J120" t="n">
         <v>15</v>
@@ -4538,28 +4538,28 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.08916896436622856</v>
+        <v>0.04977261287730785</v>
       </c>
       <c r="C121" t="n">
-        <v>0.02724712014679633</v>
+        <v>0.009804004356694896</v>
       </c>
       <c r="D121" t="n">
-        <v>0.08590742365596507</v>
+        <v>0.06422502108063985</v>
       </c>
       <c r="E121" t="n">
-        <v>0.07729446631100653</v>
+        <v>0.05808333094571686</v>
       </c>
       <c r="F121" t="n">
-        <v>0.09965030696813523</v>
+        <v>0.05531739172135993</v>
       </c>
       <c r="G121" t="n">
-        <v>0.220247400022819</v>
+        <v>0.005845148881585829</v>
       </c>
       <c r="H121" t="n">
-        <v>0.932336410363639</v>
+        <v>0.9499416777592511</v>
       </c>
       <c r="I121" t="n">
-        <v>0.5645689663844163</v>
+        <v>0.365656725095067</v>
       </c>
       <c r="J121" t="n">
         <v>15</v>
@@ -4572,28 +4572,28 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.7458196921512128</v>
+        <v>0.2374308176436104</v>
       </c>
       <c r="C122" t="n">
-        <v>0.1176872034402533</v>
+        <v>0.03004145939524781</v>
       </c>
       <c r="D122" t="n">
-        <v>0.700859898119006</v>
+        <v>0.3683392847755155</v>
       </c>
       <c r="E122" t="n">
-        <v>0.7243707511121207</v>
+        <v>0.3732601998207484</v>
       </c>
       <c r="F122" t="n">
-        <v>0.617666741414081</v>
+        <v>0.4135215954201846</v>
       </c>
       <c r="G122" t="n">
-        <v>0.9971586016296667</v>
+        <v>0.001134009206949634</v>
       </c>
       <c r="H122" t="n">
-        <v>0.8372654075399956</v>
+        <v>0.8886792084674079</v>
       </c>
       <c r="I122" t="n">
-        <v>0.9108104157140072</v>
+        <v>0.3804254033650318</v>
       </c>
       <c r="J122" t="n">
         <v>17</v>
@@ -4606,28 +4606,28 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.879233275710064</v>
+        <v>0.2787495609188507</v>
       </c>
       <c r="C123" t="n">
-        <v>0.1974740845838078</v>
+        <v>0.01808581703079971</v>
       </c>
       <c r="D123" t="n">
-        <v>0.8960365417033429</v>
+        <v>0.3349838465289398</v>
       </c>
       <c r="E123" t="n">
-        <v>0.9032424307741518</v>
+        <v>0.3266238990739859</v>
       </c>
       <c r="F123" t="n">
-        <v>0.5046068859069957</v>
+        <v>0.3199816167017143</v>
       </c>
       <c r="G123" t="n">
-        <v>0.9971586016296667</v>
+        <v>0.001134009206949634</v>
       </c>
       <c r="H123" t="n">
-        <v>0.8372654075399956</v>
+        <v>0.8886792084674079</v>
       </c>
       <c r="I123" t="n">
-        <v>0.9108104157140072</v>
+        <v>0.3804254033650318</v>
       </c>
       <c r="J123" t="n">
         <v>17</v>
@@ -4640,28 +4640,28 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.3357190861213294</v>
+        <v>0.05769809818298852</v>
       </c>
       <c r="C124" t="n">
-        <v>0.1226139149621739</v>
+        <v>0.009547520007366464</v>
       </c>
       <c r="D124" t="n">
-        <v>0.3357972668367036</v>
+        <v>0.05353050018121182</v>
       </c>
       <c r="E124" t="n">
-        <v>0.3331740537945633</v>
+        <v>0.0343211436164596</v>
       </c>
       <c r="F124" t="n">
-        <v>0.3280799928260579</v>
+        <v>0.05666028552328482</v>
       </c>
       <c r="G124" t="n">
-        <v>0.9971586016296667</v>
+        <v>0.001134009206949634</v>
       </c>
       <c r="H124" t="n">
-        <v>0.8372654075399956</v>
+        <v>0.8886792084674079</v>
       </c>
       <c r="I124" t="n">
-        <v>0.9108104157140072</v>
+        <v>0.3804254033650318</v>
       </c>
       <c r="J124" t="n">
         <v>17</v>
@@ -4674,28 +4674,28 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.3524782949663988</v>
+        <v>0.009251086724732977</v>
       </c>
       <c r="C125" t="n">
-        <v>0.09111842129497219</v>
+        <v>-0.001033747706499423</v>
       </c>
       <c r="D125" t="n">
-        <v>0.3524782949663988</v>
+        <v>0.004517558532041338</v>
       </c>
       <c r="E125" t="n">
-        <v>0.3524782949663988</v>
+        <v>0.004988728826394969</v>
       </c>
       <c r="F125" t="n">
-        <v>0.3524782949663988</v>
+        <v>0.005268419296421861</v>
       </c>
       <c r="G125" t="n">
-        <v>0.9971586016296667</v>
+        <v>0.001134009206949634</v>
       </c>
       <c r="H125" t="n">
-        <v>0.8372654075399956</v>
+        <v>0.8886792084674079</v>
       </c>
       <c r="I125" t="n">
-        <v>0.9108104157140072</v>
+        <v>0.3804254033650318</v>
       </c>
       <c r="J125" t="n">
         <v>17</v>
@@ -4708,28 +4708,28 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.349325235616962</v>
+        <v>0.03341964641557633</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1524126562956465</v>
+        <v>0.002166196323363955</v>
       </c>
       <c r="D126" t="n">
-        <v>0.3464311097034002</v>
+        <v>0.06878686066405429</v>
       </c>
       <c r="E126" t="n">
-        <v>0.3440789526809013</v>
+        <v>0.06899409239465752</v>
       </c>
       <c r="F126" t="n">
-        <v>0.3214903416235602</v>
+        <v>0.02800890267601518</v>
       </c>
       <c r="G126" t="n">
-        <v>0.9971586016296667</v>
+        <v>0.001134009206949634</v>
       </c>
       <c r="H126" t="n">
-        <v>0.8372654075399956</v>
+        <v>0.8886792084674079</v>
       </c>
       <c r="I126" t="n">
-        <v>0.9108104157140072</v>
+        <v>0.3804254033650318</v>
       </c>
       <c r="J126" t="n">
         <v>17</v>
@@ -4742,28 +4742,28 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.3548392641126153</v>
+        <v>0.05267884357112571</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1323212148040057</v>
+        <v>0.007933679248266783</v>
       </c>
       <c r="D127" t="n">
-        <v>0.3565237119257715</v>
+        <v>0.05398396965222917</v>
       </c>
       <c r="E127" t="n">
-        <v>0.3548392641126153</v>
+        <v>0.04811958847061822</v>
       </c>
       <c r="F127" t="n">
-        <v>0.3548392641126153</v>
+        <v>0.0496302709489105</v>
       </c>
       <c r="G127" t="n">
-        <v>0.9971586016296667</v>
+        <v>0.001134009206949634</v>
       </c>
       <c r="H127" t="n">
-        <v>0.8372654075399956</v>
+        <v>0.8886792084674079</v>
       </c>
       <c r="I127" t="n">
-        <v>0.9108104157140072</v>
+        <v>0.3804254033650318</v>
       </c>
       <c r="J127" t="n">
         <v>17</v>
@@ -4776,28 +4776,28 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.1003750720886265</v>
+        <v>0.01272981530230595</v>
       </c>
       <c r="C128" t="n">
-        <v>0.07413627054023839</v>
+        <v>0.01700646138445861</v>
       </c>
       <c r="D128" t="n">
-        <v>0.09155834555731279</v>
+        <v>0.01721263374483997</v>
       </c>
       <c r="E128" t="n">
-        <v>0.09422590347786121</v>
+        <v>0.01908272530218377</v>
       </c>
       <c r="F128" t="n">
-        <v>0.1003750720886265</v>
+        <v>0.01272981530230595</v>
       </c>
       <c r="G128" t="n">
-        <v>0.9971586016296667</v>
+        <v>0.001134009206949634</v>
       </c>
       <c r="H128" t="n">
-        <v>0.8372654075399956</v>
+        <v>0.8886792084674079</v>
       </c>
       <c r="I128" t="n">
-        <v>0.9108104157140072</v>
+        <v>0.3804254033650318</v>
       </c>
       <c r="J128" t="n">
         <v>17</v>
@@ -4810,28 +4810,28 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.2923997669597779</v>
+        <v>0.06985171678175918</v>
       </c>
       <c r="C129" t="n">
-        <v>0.1151126312748428</v>
+        <v>0.01355321454484449</v>
       </c>
       <c r="D129" t="n">
-        <v>0.296758012772833</v>
+        <v>0.05753708000416965</v>
       </c>
       <c r="E129" t="n">
-        <v>0.2825592716982506</v>
+        <v>0.05262697933271101</v>
       </c>
       <c r="F129" t="n">
-        <v>0.32909716711624</v>
+        <v>0.0670361126182176</v>
       </c>
       <c r="G129" t="n">
-        <v>0.9971586016296667</v>
+        <v>0.001134009206949634</v>
       </c>
       <c r="H129" t="n">
-        <v>0.8372654075399956</v>
+        <v>0.8886792084674079</v>
       </c>
       <c r="I129" t="n">
-        <v>0.9108104157140072</v>
+        <v>0.3804254033650318</v>
       </c>
       <c r="J129" t="n">
         <v>17</v>
@@ -4844,28 +4844,28 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.6465148821861877</v>
+        <v>0.6811652316141041</v>
       </c>
       <c r="C130" t="n">
-        <v>0.08727570977601716</v>
+        <v>0.06221895336698564</v>
       </c>
       <c r="D130" t="n">
-        <v>0.8448643477642431</v>
+        <v>0.6263271610572934</v>
       </c>
       <c r="E130" t="n">
-        <v>0.8320179782724006</v>
+        <v>0.6523743399946974</v>
       </c>
       <c r="F130" t="n">
-        <v>0.5168990721797804</v>
+        <v>0.4871771539734202</v>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>0.9970656981162577</v>
       </c>
       <c r="H130" t="n">
-        <v>0.8356848474095664</v>
+        <v>0.7863470370832678</v>
       </c>
       <c r="I130" t="n">
-        <v>0.8140203834637372</v>
+        <v>0.8125765109537321</v>
       </c>
       <c r="J130" t="n">
         <v>18</v>
@@ -4878,28 +4878,28 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.9416551999166319</v>
+        <v>0.928242189313069</v>
       </c>
       <c r="C131" t="n">
-        <v>0.1550173001899472</v>
+        <v>0.1144493402454632</v>
       </c>
       <c r="D131" t="n">
-        <v>0.8600705165839292</v>
+        <v>0.8110694870500913</v>
       </c>
       <c r="E131" t="n">
-        <v>0.8704527203628535</v>
+        <v>0.8218865886080623</v>
       </c>
       <c r="F131" t="n">
-        <v>0.6405812757429576</v>
+        <v>0.6164478834385771</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>0.9970656981162577</v>
       </c>
       <c r="H131" t="n">
-        <v>0.8356848474095664</v>
+        <v>0.7863470370832678</v>
       </c>
       <c r="I131" t="n">
-        <v>0.8140203834637372</v>
+        <v>0.8125765109537321</v>
       </c>
       <c r="J131" t="n">
         <v>18</v>
@@ -4912,28 +4912,28 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.1839967845870098</v>
+        <v>0.1720650583477782</v>
       </c>
       <c r="C132" t="n">
-        <v>0.04496779796817382</v>
+        <v>0.06453532928838894</v>
       </c>
       <c r="D132" t="n">
-        <v>0.1876431518055641</v>
+        <v>0.1501864649162719</v>
       </c>
       <c r="E132" t="n">
-        <v>0.1809375268496558</v>
+        <v>0.1515815411623639</v>
       </c>
       <c r="F132" t="n">
-        <v>0.1790085638755655</v>
+        <v>0.178979699343913</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0.9970656981162577</v>
       </c>
       <c r="H132" t="n">
-        <v>0.8356848474095664</v>
+        <v>0.7863470370832678</v>
       </c>
       <c r="I132" t="n">
-        <v>0.8140203834637372</v>
+        <v>0.8125765109537321</v>
       </c>
       <c r="J132" t="n">
         <v>18</v>
@@ -4946,28 +4946,28 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.1866204771776903</v>
+        <v>0.2250103565451081</v>
       </c>
       <c r="C133" t="n">
-        <v>0.07568769216961277</v>
+        <v>0.04381448539994909</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1866204771776903</v>
+        <v>0.2250103565451081</v>
       </c>
       <c r="E133" t="n">
-        <v>0.1866204771776903</v>
+        <v>0.2250103565451081</v>
       </c>
       <c r="F133" t="n">
-        <v>0.1866204771776903</v>
+        <v>0.2250103565451081</v>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>0.9970656981162577</v>
       </c>
       <c r="H133" t="n">
-        <v>0.8356848474095664</v>
+        <v>0.7863470370832678</v>
       </c>
       <c r="I133" t="n">
-        <v>0.8140203834637372</v>
+        <v>0.8125765109537321</v>
       </c>
       <c r="J133" t="n">
         <v>18</v>
@@ -4980,28 +4980,28 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.1924858925434023</v>
+        <v>0.1938834590282819</v>
       </c>
       <c r="C134" t="n">
-        <v>0.07220432917640521</v>
+        <v>0.09488125601536182</v>
       </c>
       <c r="D134" t="n">
-        <v>0.2045932578614151</v>
+        <v>0.1898593990535132</v>
       </c>
       <c r="E134" t="n">
-        <v>0.1956753499832921</v>
+        <v>0.2055639673834078</v>
       </c>
       <c r="F134" t="n">
-        <v>0.1936333974304127</v>
+        <v>0.1942798450666474</v>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>0.9970656981162577</v>
       </c>
       <c r="H134" t="n">
-        <v>0.8356848474095664</v>
+        <v>0.7863470370832678</v>
       </c>
       <c r="I134" t="n">
-        <v>0.8140203834637372</v>
+        <v>0.8125765109537321</v>
       </c>
       <c r="J134" t="n">
         <v>18</v>
@@ -5014,28 +5014,28 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.2038087329358105</v>
+        <v>0.2231435413488311</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0684798913082719</v>
+        <v>0.1018565163983574</v>
       </c>
       <c r="D135" t="n">
-        <v>0.2042114734523913</v>
+        <v>0.2106866837648605</v>
       </c>
       <c r="E135" t="n">
-        <v>0.2059381425971056</v>
+        <v>0.2106282153491171</v>
       </c>
       <c r="F135" t="n">
-        <v>0.2038087329358105</v>
+        <v>0.2231435413488311</v>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>0.9970656981162577</v>
       </c>
       <c r="H135" t="n">
-        <v>0.8356848474095664</v>
+        <v>0.7863470370832678</v>
       </c>
       <c r="I135" t="n">
-        <v>0.8140203834637372</v>
+        <v>0.8125765109537321</v>
       </c>
       <c r="J135" t="n">
         <v>18</v>
@@ -5048,28 +5048,28 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.03753039382851583</v>
+        <v>0.06405095032701701</v>
       </c>
       <c r="C136" t="n">
-        <v>0.02378738895415303</v>
+        <v>0.03867582054886466</v>
       </c>
       <c r="D136" t="n">
-        <v>0.03707359289452946</v>
+        <v>0.06070285230438573</v>
       </c>
       <c r="E136" t="n">
-        <v>0.04075110612287706</v>
+        <v>0.06284819729466032</v>
       </c>
       <c r="F136" t="n">
-        <v>0.03753039382851583</v>
+        <v>0.06405095032701701</v>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>0.9970656981162577</v>
       </c>
       <c r="H136" t="n">
-        <v>0.8356848474095664</v>
+        <v>0.7863470370832678</v>
       </c>
       <c r="I136" t="n">
-        <v>0.8140203834637372</v>
+        <v>0.8125765109537321</v>
       </c>
       <c r="J136" t="n">
         <v>18</v>
@@ -5082,28 +5082,28 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.1245840733666685</v>
+        <v>0.1915279368068574</v>
       </c>
       <c r="C137" t="n">
-        <v>0.03723612756734087</v>
+        <v>0.05075896804317427</v>
       </c>
       <c r="D137" t="n">
-        <v>0.1245890266627121</v>
+        <v>0.1622651135193321</v>
       </c>
       <c r="E137" t="n">
-        <v>0.1155800166223183</v>
+        <v>0.1640556634281255</v>
       </c>
       <c r="F137" t="n">
-        <v>0.1490568344950505</v>
+        <v>0.1881905016431085</v>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>0.9970656981162577</v>
       </c>
       <c r="H137" t="n">
-        <v>0.8356848474095664</v>
+        <v>0.7863470370832678</v>
       </c>
       <c r="I137" t="n">
-        <v>0.8140203834637372</v>
+        <v>0.8125765109537321</v>
       </c>
       <c r="J137" t="n">
         <v>18</v>
@@ -5116,28 +5116,28 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.6750172395242984</v>
+        <v>0.8132983815279596</v>
       </c>
       <c r="C138" t="n">
-        <v>0.1792383395251764</v>
+        <v>0.1081866138850022</v>
       </c>
       <c r="D138" t="n">
-        <v>0.7360000618276694</v>
+        <v>0.8264695834869065</v>
       </c>
       <c r="E138" t="n">
-        <v>0.7394534790837607</v>
+        <v>0.8516498713496883</v>
       </c>
       <c r="F138" t="n">
-        <v>0.5342899457936678</v>
+        <v>0.5492892338080623</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>0.728918426178452</v>
+        <v>0.8189086592409671</v>
       </c>
       <c r="I138" t="n">
-        <v>0.8789758982108372</v>
+        <v>0.8916162454331398</v>
       </c>
       <c r="J138" t="n">
         <v>19</v>
@@ -5150,28 +5150,28 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.9790190040168933</v>
+        <v>0.909086671139271</v>
       </c>
       <c r="C139" t="n">
-        <v>0.2635051791479361</v>
+        <v>0.2748217248512056</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9962571957034122</v>
+        <v>0.8991278401488925</v>
       </c>
       <c r="E139" t="n">
-        <v>0.9908148338457803</v>
+        <v>0.9100414263159402</v>
       </c>
       <c r="F139" t="n">
-        <v>0.7189927699849162</v>
+        <v>0.6687340253632966</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>0.728918426178452</v>
+        <v>0.8189086592409671</v>
       </c>
       <c r="I139" t="n">
-        <v>0.8789758982108372</v>
+        <v>0.8916162454331398</v>
       </c>
       <c r="J139" t="n">
         <v>19</v>
@@ -5184,28 +5184,28 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.3402770495378447</v>
+        <v>0.3363043457948772</v>
       </c>
       <c r="C140" t="n">
-        <v>0.08572121998216722</v>
+        <v>0.071459201705439</v>
       </c>
       <c r="D140" t="n">
-        <v>0.3217911263534933</v>
+        <v>0.3412381188216592</v>
       </c>
       <c r="E140" t="n">
-        <v>0.3214857895315907</v>
+        <v>0.3209690876981648</v>
       </c>
       <c r="F140" t="n">
-        <v>0.3402770495378447</v>
+        <v>0.33607294821818</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>0.728918426178452</v>
+        <v>0.8189086592409671</v>
       </c>
       <c r="I140" t="n">
-        <v>0.8789758982108372</v>
+        <v>0.8916162454331398</v>
       </c>
       <c r="J140" t="n">
         <v>19</v>
@@ -5218,28 +5218,28 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.3281284207424066</v>
+        <v>0.3431891160966721</v>
       </c>
       <c r="C141" t="n">
-        <v>0.1112267091512661</v>
+        <v>0.04690636541105016</v>
       </c>
       <c r="D141" t="n">
-        <v>0.3281284207424066</v>
+        <v>0.3354558075097715</v>
       </c>
       <c r="E141" t="n">
-        <v>0.3281284207424066</v>
+        <v>0.3354558075097715</v>
       </c>
       <c r="F141" t="n">
-        <v>0.3281284207424066</v>
+        <v>0.3431891160966721</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>0.728918426178452</v>
+        <v>0.8189086592409671</v>
       </c>
       <c r="I141" t="n">
-        <v>0.8789758982108372</v>
+        <v>0.8916162454331398</v>
       </c>
       <c r="J141" t="n">
         <v>19</v>
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.3442344759415464</v>
+        <v>0.350496772997798</v>
       </c>
       <c r="C142" t="n">
-        <v>0.07706917243054609</v>
+        <v>0.08541705345167784</v>
       </c>
       <c r="D142" t="n">
-        <v>0.3386853537062066</v>
+        <v>0.3201340146886342</v>
       </c>
       <c r="E142" t="n">
-        <v>0.3208789025179274</v>
+        <v>0.3204420846482919</v>
       </c>
       <c r="F142" t="n">
-        <v>0.3283764691006461</v>
+        <v>0.3326042913720881</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>0.728918426178452</v>
+        <v>0.8189086592409671</v>
       </c>
       <c r="I142" t="n">
-        <v>0.8789758982108372</v>
+        <v>0.8916162454331398</v>
       </c>
       <c r="J142" t="n">
         <v>19</v>
@@ -5286,28 +5286,28 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.3124692050161971</v>
+        <v>0.3703929002638928</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2438194938919233</v>
+        <v>0.2542495248090023</v>
       </c>
       <c r="D143" t="n">
-        <v>0.3190725711871479</v>
+        <v>0.3731815082046898</v>
       </c>
       <c r="E143" t="n">
-        <v>0.3202946886591692</v>
+        <v>0.3709526833137392</v>
       </c>
       <c r="F143" t="n">
-        <v>0.3124692050161971</v>
+        <v>0.3703929002638928</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0.728918426178452</v>
+        <v>0.8189086592409671</v>
       </c>
       <c r="I143" t="n">
-        <v>0.8789758982108372</v>
+        <v>0.8916162454331398</v>
       </c>
       <c r="J143" t="n">
         <v>19</v>
@@ -5320,28 +5320,28 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.04694221419780122</v>
+        <v>0.07771067258053602</v>
       </c>
       <c r="C144" t="n">
-        <v>0.05012360353785461</v>
+        <v>0.05962632047308956</v>
       </c>
       <c r="D144" t="n">
-        <v>0.04762668313621635</v>
+        <v>0.08126120363632018</v>
       </c>
       <c r="E144" t="n">
-        <v>0.04856674998766962</v>
+        <v>0.08226229197024051</v>
       </c>
       <c r="F144" t="n">
-        <v>0.04694221419780122</v>
+        <v>0.07771067258053602</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>0.728918426178452</v>
+        <v>0.8189086592409671</v>
       </c>
       <c r="I144" t="n">
-        <v>0.8789758982108372</v>
+        <v>0.8916162454331398</v>
       </c>
       <c r="J144" t="n">
         <v>19</v>
@@ -5354,28 +5354,28 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.2612245057247362</v>
+        <v>0.3044262858603831</v>
       </c>
       <c r="C145" t="n">
-        <v>0.05699611109104526</v>
+        <v>0.05918438465329635</v>
       </c>
       <c r="D145" t="n">
-        <v>0.261403527036472</v>
+        <v>0.2716879220795438</v>
       </c>
       <c r="E145" t="n">
-        <v>0.2483565997584868</v>
+        <v>0.2766228421194397</v>
       </c>
       <c r="F145" t="n">
-        <v>0.2616584237982224</v>
+        <v>0.2695323701261673</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>0.728918426178452</v>
+        <v>0.8189086592409671</v>
       </c>
       <c r="I145" t="n">
-        <v>0.8789758982108372</v>
+        <v>0.8916162454331398</v>
       </c>
       <c r="J145" t="n">
         <v>19</v>
@@ -5388,28 +5388,28 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.4050101455945493</v>
+        <v>0.4091514877330297</v>
       </c>
       <c r="C146" t="n">
-        <v>0.06114862505792897</v>
+        <v>0.03435815980775194</v>
       </c>
       <c r="D146" t="n">
-        <v>0.4155522605545118</v>
+        <v>0.5311689932867888</v>
       </c>
       <c r="E146" t="n">
-        <v>0.4105960727740144</v>
+        <v>0.5440294980743327</v>
       </c>
       <c r="F146" t="n">
-        <v>0.4406090692348993</v>
+        <v>0.3747329426736382</v>
       </c>
       <c r="G146" t="n">
-        <v>0.4518261386277353</v>
+        <v>0.4477968066515783</v>
       </c>
       <c r="H146" t="n">
-        <v>0.9393715005034468</v>
+        <v>0.8553039895026242</v>
       </c>
       <c r="I146" t="n">
-        <v>0.5953847235348475</v>
+        <v>0.5605750183837034</v>
       </c>
       <c r="J146" t="n">
         <v>20</v>
@@ -5422,28 +5422,28 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.5087794640717751</v>
+        <v>0.5909837764010444</v>
       </c>
       <c r="C147" t="n">
-        <v>0.05037586564490291</v>
+        <v>0.03004544115769763</v>
       </c>
       <c r="D147" t="n">
-        <v>0.5315655025261685</v>
+        <v>0.6669572799097299</v>
       </c>
       <c r="E147" t="n">
-        <v>0.5645101892054176</v>
+        <v>0.6537997317940405</v>
       </c>
       <c r="F147" t="n">
-        <v>0.4472737973204445</v>
+        <v>0.4189959348319422</v>
       </c>
       <c r="G147" t="n">
-        <v>0.4518261386277353</v>
+        <v>0.4477968066515783</v>
       </c>
       <c r="H147" t="n">
-        <v>0.9393715005034468</v>
+        <v>0.8553039895026242</v>
       </c>
       <c r="I147" t="n">
-        <v>0.5953847235348475</v>
+        <v>0.5605750183837034</v>
       </c>
       <c r="J147" t="n">
         <v>20</v>
@@ -5456,28 +5456,28 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.09312982043634901</v>
+        <v>0.03008238233070746</v>
       </c>
       <c r="C148" t="n">
-        <v>0.01291117259819453</v>
+        <v>0.003848488902346953</v>
       </c>
       <c r="D148" t="n">
-        <v>0.07778650930038386</v>
+        <v>0.02944937510230982</v>
       </c>
       <c r="E148" t="n">
-        <v>0.07310120723006307</v>
+        <v>0.02171719830852754</v>
       </c>
       <c r="F148" t="n">
-        <v>0.08578369632654993</v>
+        <v>0.02885103234151774</v>
       </c>
       <c r="G148" t="n">
-        <v>0.4518261386277353</v>
+        <v>0.4477968066515783</v>
       </c>
       <c r="H148" t="n">
-        <v>0.9393715005034468</v>
+        <v>0.8553039895026242</v>
       </c>
       <c r="I148" t="n">
-        <v>0.5953847235348475</v>
+        <v>0.5605750183837034</v>
       </c>
       <c r="J148" t="n">
         <v>20</v>
@@ -5490,28 +5490,28 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.06688478578816355</v>
+        <v>0.009026522691254301</v>
       </c>
       <c r="C149" t="n">
-        <v>0.02267766792151344</v>
+        <v>0.005313478745912691</v>
       </c>
       <c r="D149" t="n">
-        <v>0.0738005693348425</v>
+        <v>0.0217454281207875</v>
       </c>
       <c r="E149" t="n">
-        <v>0.07312053422521551</v>
+        <v>0.01871313963928862</v>
       </c>
       <c r="F149" t="n">
-        <v>0.06139353840152354</v>
+        <v>0.02220941539753996</v>
       </c>
       <c r="G149" t="n">
-        <v>0.4518261386277353</v>
+        <v>0.4477968066515783</v>
       </c>
       <c r="H149" t="n">
-        <v>0.9393715005034468</v>
+        <v>0.8553039895026242</v>
       </c>
       <c r="I149" t="n">
-        <v>0.5953847235348475</v>
+        <v>0.5605750183837034</v>
       </c>
       <c r="J149" t="n">
         <v>20</v>
@@ -5524,28 +5524,28 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.07029811343559267</v>
+        <v>0.0382239265484975</v>
       </c>
       <c r="C150" t="n">
-        <v>0.004866363861837648</v>
+        <v>0.002527329388946711</v>
       </c>
       <c r="D150" t="n">
-        <v>0.08082525098436794</v>
+        <v>0.03901783118785995</v>
       </c>
       <c r="E150" t="n">
-        <v>0.0812433568271429</v>
+        <v>0.0426815381746687</v>
       </c>
       <c r="F150" t="n">
-        <v>0.07358368730750688</v>
+        <v>0.03673069390609204</v>
       </c>
       <c r="G150" t="n">
-        <v>0.4518261386277353</v>
+        <v>0.4477968066515783</v>
       </c>
       <c r="H150" t="n">
-        <v>0.9393715005034468</v>
+        <v>0.8553039895026242</v>
       </c>
       <c r="I150" t="n">
-        <v>0.5953847235348475</v>
+        <v>0.5605750183837034</v>
       </c>
       <c r="J150" t="n">
         <v>20</v>
@@ -5558,28 +5558,28 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.0515418545564798</v>
+        <v>0.03445397678447028</v>
       </c>
       <c r="C151" t="n">
-        <v>0.01278707866505284</v>
+        <v>0.008746130809866793</v>
       </c>
       <c r="D151" t="n">
-        <v>0.05363783297172788</v>
+        <v>0.0292629676073326</v>
       </c>
       <c r="E151" t="n">
-        <v>0.05508513616267182</v>
+        <v>0.02294647432898005</v>
       </c>
       <c r="F151" t="n">
-        <v>0.0515418545564798</v>
+        <v>0.03445397678447028</v>
       </c>
       <c r="G151" t="n">
-        <v>0.4518261386277353</v>
+        <v>0.4477968066515783</v>
       </c>
       <c r="H151" t="n">
-        <v>0.9393715005034468</v>
+        <v>0.8553039895026242</v>
       </c>
       <c r="I151" t="n">
-        <v>0.5953847235348475</v>
+        <v>0.5605750183837034</v>
       </c>
       <c r="J151" t="n">
         <v>20</v>
@@ -5592,28 +5592,28 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.02445108201592682</v>
+        <v>0.003959908299844645</v>
       </c>
       <c r="C152" t="n">
-        <v>0.01056075280483081</v>
+        <v>0.003147154272793005</v>
       </c>
       <c r="D152" t="n">
-        <v>0.01337794074153648</v>
+        <v>0.003159919113135739</v>
       </c>
       <c r="E152" t="n">
-        <v>0.008746826840396901</v>
+        <v>0.0008485870453543889</v>
       </c>
       <c r="F152" t="n">
-        <v>0.02445108201592682</v>
+        <v>0.003959908299844645</v>
       </c>
       <c r="G152" t="n">
-        <v>0.4518261386277353</v>
+        <v>0.4477968066515783</v>
       </c>
       <c r="H152" t="n">
-        <v>0.9393715005034468</v>
+        <v>0.8553039895026242</v>
       </c>
       <c r="I152" t="n">
-        <v>0.5953847235348475</v>
+        <v>0.5605750183837034</v>
       </c>
       <c r="J152" t="n">
         <v>20</v>
@@ -5626,28 +5626,28 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.07689024243627181</v>
+        <v>0.03237662637044845</v>
       </c>
       <c r="C153" t="n">
-        <v>0.01842959455571712</v>
+        <v>0.01029977284554869</v>
       </c>
       <c r="D153" t="n">
-        <v>0.06944159950552484</v>
+        <v>0.04614277539815946</v>
       </c>
       <c r="E153" t="n">
-        <v>0.06381467033493424</v>
+        <v>0.04169987823593346</v>
       </c>
       <c r="F153" t="n">
-        <v>0.06828489461641307</v>
+        <v>0.04391448445084836</v>
       </c>
       <c r="G153" t="n">
-        <v>0.4518261386277353</v>
+        <v>0.4477968066515783</v>
       </c>
       <c r="H153" t="n">
-        <v>0.9393715005034468</v>
+        <v>0.8553039895026242</v>
       </c>
       <c r="I153" t="n">
-        <v>0.5953847235348475</v>
+        <v>0.5605750183837034</v>
       </c>
       <c r="J153" t="n">
         <v>20</v>
@@ -5660,28 +5660,28 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.3751826964857766</v>
+        <v>0.3787508472354021</v>
       </c>
       <c r="C154" t="n">
-        <v>0.02825726570147745</v>
+        <v>0.03661318918858622</v>
       </c>
       <c r="D154" t="n">
-        <v>0.3962579180158698</v>
+        <v>0.4393040508351455</v>
       </c>
       <c r="E154" t="n">
-        <v>0.3893705003983289</v>
+        <v>0.4366129128018641</v>
       </c>
       <c r="F154" t="n">
-        <v>0.3499306982581247</v>
+        <v>0.4335294295074995</v>
       </c>
       <c r="G154" t="n">
-        <v>0.02611529295145823</v>
+        <v>-0.001618817357607589</v>
       </c>
       <c r="H154" t="n">
-        <v>0.8968778542614236</v>
+        <v>0.9641393856601745</v>
       </c>
       <c r="I154" t="n">
-        <v>0.477398424429594</v>
+        <v>0.4882767594513832</v>
       </c>
       <c r="J154" t="n">
         <v>21</v>
@@ -5694,28 +5694,28 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.4097596191394745</v>
+        <v>0.4981357155844315</v>
       </c>
       <c r="C155" t="n">
-        <v>0.0306398410907621</v>
+        <v>0.02641739177056674</v>
       </c>
       <c r="D155" t="n">
-        <v>0.4547065843415735</v>
+        <v>0.5636179070419649</v>
       </c>
       <c r="E155" t="n">
-        <v>0.4898121176253971</v>
+        <v>0.5642446551676598</v>
       </c>
       <c r="F155" t="n">
-        <v>0.4535550866900718</v>
+        <v>0.3931030750217246</v>
       </c>
       <c r="G155" t="n">
-        <v>0.02611529295145823</v>
+        <v>-0.001618817357607589</v>
       </c>
       <c r="H155" t="n">
-        <v>0.8968778542614236</v>
+        <v>0.9641393856601745</v>
       </c>
       <c r="I155" t="n">
-        <v>0.477398424429594</v>
+        <v>0.4882767594513832</v>
       </c>
       <c r="J155" t="n">
         <v>21</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.03143085525465927</v>
+        <v>0.03246487272359493</v>
       </c>
       <c r="C156" t="n">
-        <v>0.008116339185662321</v>
+        <v>0.01096524470947551</v>
       </c>
       <c r="D156" t="n">
-        <v>0.03417801494323984</v>
+        <v>0.04876795959424125</v>
       </c>
       <c r="E156" t="n">
-        <v>0.03173382178112504</v>
+        <v>0.03654189254370262</v>
       </c>
       <c r="F156" t="n">
-        <v>0.0337396379354606</v>
+        <v>0.0511771663188965</v>
       </c>
       <c r="G156" t="n">
-        <v>0.02611529295145823</v>
+        <v>-0.001618817357607589</v>
       </c>
       <c r="H156" t="n">
-        <v>0.8968778542614236</v>
+        <v>0.9641393856601745</v>
       </c>
       <c r="I156" t="n">
-        <v>0.477398424429594</v>
+        <v>0.4882767594513832</v>
       </c>
       <c r="J156" t="n">
         <v>21</v>
@@ -5762,28 +5762,28 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.03098055913261984</v>
+        <v>0.03715757232471308</v>
       </c>
       <c r="C157" t="n">
-        <v>0.01399415678999953</v>
+        <v>0.005870822607921539</v>
       </c>
       <c r="D157" t="n">
-        <v>0.05441422831880337</v>
+        <v>0.04034280140618009</v>
       </c>
       <c r="E157" t="n">
-        <v>0.0586291461208502</v>
+        <v>0.04740269816332925</v>
       </c>
       <c r="F157" t="n">
-        <v>0.02906545816613454</v>
+        <v>0.02354045318260364</v>
       </c>
       <c r="G157" t="n">
-        <v>0.02611529295145823</v>
+        <v>-0.001618817357607589</v>
       </c>
       <c r="H157" t="n">
-        <v>0.8968778542614236</v>
+        <v>0.9641393856601745</v>
       </c>
       <c r="I157" t="n">
-        <v>0.477398424429594</v>
+        <v>0.4882767594513832</v>
       </c>
       <c r="J157" t="n">
         <v>21</v>
@@ -5796,28 +5796,28 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.04802212615305713</v>
+        <v>0.06721947438530124</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.00205596269533477</v>
+        <v>0.0008249594594448087</v>
       </c>
       <c r="D158" t="n">
-        <v>0.05828032678332878</v>
+        <v>0.08383194043453963</v>
       </c>
       <c r="E158" t="n">
-        <v>0.05755795473530887</v>
+        <v>0.08386373436146659</v>
       </c>
       <c r="F158" t="n">
-        <v>0.05091282709636541</v>
+        <v>0.06423758527485071</v>
       </c>
       <c r="G158" t="n">
-        <v>0.02611529295145823</v>
+        <v>-0.001618817357607589</v>
       </c>
       <c r="H158" t="n">
-        <v>0.8968778542614236</v>
+        <v>0.9641393856601745</v>
       </c>
       <c r="I158" t="n">
-        <v>0.477398424429594</v>
+        <v>0.4882767594513832</v>
       </c>
       <c r="J158" t="n">
         <v>21</v>
@@ -5830,28 +5830,28 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.05201760613040649</v>
+        <v>0.06024907475554279</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.004972662479723195</v>
+        <v>0.004182241989121184</v>
       </c>
       <c r="D159" t="n">
-        <v>0.06006461852779406</v>
+        <v>0.09400262289166879</v>
       </c>
       <c r="E159" t="n">
-        <v>0.06386386075486757</v>
+        <v>0.08859627897420555</v>
       </c>
       <c r="F159" t="n">
-        <v>0.05201760613040649</v>
+        <v>0.06095991252093826</v>
       </c>
       <c r="G159" t="n">
-        <v>0.02611529295145823</v>
+        <v>-0.001618817357607589</v>
       </c>
       <c r="H159" t="n">
-        <v>0.8968778542614236</v>
+        <v>0.9641393856601745</v>
       </c>
       <c r="I159" t="n">
-        <v>0.477398424429594</v>
+        <v>0.4882767594513832</v>
       </c>
       <c r="J159" t="n">
         <v>21</v>
@@ -5864,28 +5864,28 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.02584236647213937</v>
+        <v>0.01474035970822035</v>
       </c>
       <c r="C160" t="n">
-        <v>0.02101158780793881</v>
+        <v>0.01332611366333391</v>
       </c>
       <c r="D160" t="n">
-        <v>0.01884422961597441</v>
+        <v>0.01007439111451948</v>
       </c>
       <c r="E160" t="n">
-        <v>0.02032851921310966</v>
+        <v>0.006280386767383831</v>
       </c>
       <c r="F160" t="n">
-        <v>0.02584236647213937</v>
+        <v>0.01474035970822035</v>
       </c>
       <c r="G160" t="n">
-        <v>0.02611529295145823</v>
+        <v>-0.001618817357607589</v>
       </c>
       <c r="H160" t="n">
-        <v>0.8968778542614236</v>
+        <v>0.9641393856601745</v>
       </c>
       <c r="I160" t="n">
-        <v>0.477398424429594</v>
+        <v>0.4882767594513832</v>
       </c>
       <c r="J160" t="n">
         <v>21</v>
@@ -5898,28 +5898,28 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.07253562348394547</v>
+        <v>0.04259765765944896</v>
       </c>
       <c r="C161" t="n">
-        <v>0.02415050295720543</v>
+        <v>0.007437746750172769</v>
       </c>
       <c r="D161" t="n">
-        <v>0.07579441591973655</v>
+        <v>0.05348190467391595</v>
       </c>
       <c r="E161" t="n">
-        <v>0.06602189038297715</v>
+        <v>0.04576423044129391</v>
       </c>
       <c r="F161" t="n">
-        <v>0.05868165657231976</v>
+        <v>0.04945081865936567</v>
       </c>
       <c r="G161" t="n">
-        <v>0.02611529295145823</v>
+        <v>-0.001618817357607589</v>
       </c>
       <c r="H161" t="n">
-        <v>0.8968778542614236</v>
+        <v>0.9641393856601745</v>
       </c>
       <c r="I161" t="n">
-        <v>0.477398424429594</v>
+        <v>0.4882767594513832</v>
       </c>
       <c r="J161" t="n">
         <v>21</v>
@@ -5932,28 +5932,28 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.6387240170231984</v>
+        <v>0.5204738930843585</v>
       </c>
       <c r="C162" t="n">
-        <v>0.1478661804533924</v>
+        <v>0.04976450292989284</v>
       </c>
       <c r="D162" t="n">
-        <v>0.5909385982485978</v>
+        <v>0.5843351869533689</v>
       </c>
       <c r="E162" t="n">
-        <v>0.5849829744923747</v>
+        <v>0.5745983835810918</v>
       </c>
       <c r="F162" t="n">
-        <v>0.4793962140772939</v>
+        <v>0.4413018729631476</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
       </c>
       <c r="H162" t="n">
-        <v>0.7316775123820456</v>
+        <v>0.8295030862551153</v>
       </c>
       <c r="I162" t="n">
-        <v>0.9238368884483379</v>
+        <v>0.7470925001936856</v>
       </c>
       <c r="J162" t="n">
         <v>23</v>
@@ -5966,28 +5966,28 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.7922082308634913</v>
+        <v>0.7949156504719855</v>
       </c>
       <c r="C163" t="n">
-        <v>0.2268627339694053</v>
+        <v>0.176094974031359</v>
       </c>
       <c r="D163" t="n">
-        <v>0.7705767051535384</v>
+        <v>0.7830159508519408</v>
       </c>
       <c r="E163" t="n">
-        <v>0.7711651003154392</v>
+        <v>0.7811078343403255</v>
       </c>
       <c r="F163" t="n">
-        <v>0.5145703306831473</v>
+        <v>0.4677573578611892</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
       </c>
       <c r="H163" t="n">
-        <v>0.7316775123820456</v>
+        <v>0.8295030862551153</v>
       </c>
       <c r="I163" t="n">
-        <v>0.9238368884483379</v>
+        <v>0.7470925001936856</v>
       </c>
       <c r="J163" t="n">
         <v>23</v>
@@ -6000,28 +6000,28 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.2731429835273936</v>
+        <v>0.103640187673991</v>
       </c>
       <c r="C164" t="n">
-        <v>0.1228040010149714</v>
+        <v>0.04633802800102948</v>
       </c>
       <c r="D164" t="n">
-        <v>0.2698408982916193</v>
+        <v>0.09767194616243736</v>
       </c>
       <c r="E164" t="n">
-        <v>0.2611504722081214</v>
+        <v>0.08906694066749155</v>
       </c>
       <c r="F164" t="n">
-        <v>0.2731429835273936</v>
+        <v>0.09837184308124777</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
       </c>
       <c r="H164" t="n">
-        <v>0.7316775123820456</v>
+        <v>0.8295030862551153</v>
       </c>
       <c r="I164" t="n">
-        <v>0.9238368884483379</v>
+        <v>0.7470925001936856</v>
       </c>
       <c r="J164" t="n">
         <v>23</v>
@@ -6034,28 +6034,28 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.2424207539878907</v>
+        <v>0.1399431130334447</v>
       </c>
       <c r="C165" t="n">
-        <v>0.1193188279427023</v>
+        <v>0.08124240662539703</v>
       </c>
       <c r="D165" t="n">
-        <v>0.2483746741895772</v>
+        <v>0.1327164279263216</v>
       </c>
       <c r="E165" t="n">
-        <v>0.2483746741895772</v>
+        <v>0.1327164279263216</v>
       </c>
       <c r="F165" t="n">
-        <v>0.246779000965298</v>
+        <v>0.1416020953154225</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
       </c>
       <c r="H165" t="n">
-        <v>0.7316775123820456</v>
+        <v>0.8295030862551153</v>
       </c>
       <c r="I165" t="n">
-        <v>0.9238368884483379</v>
+        <v>0.7470925001936856</v>
       </c>
       <c r="J165" t="n">
         <v>23</v>
@@ -6068,28 +6068,28 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.274678136035435</v>
+        <v>0.1053030407961162</v>
       </c>
       <c r="C166" t="n">
-        <v>0.1043121476517109</v>
+        <v>0.01781374217209017</v>
       </c>
       <c r="D166" t="n">
-        <v>0.268068570835945</v>
+        <v>0.1153800916273345</v>
       </c>
       <c r="E166" t="n">
-        <v>0.2718047421452593</v>
+        <v>0.1124782205144639</v>
       </c>
       <c r="F166" t="n">
-        <v>0.2627689327677531</v>
+        <v>0.09285834846515023</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
       </c>
       <c r="H166" t="n">
-        <v>0.7316775123820456</v>
+        <v>0.8295030862551153</v>
       </c>
       <c r="I166" t="n">
-        <v>0.9238368884483379</v>
+        <v>0.7470925001936856</v>
       </c>
       <c r="J166" t="n">
         <v>23</v>
@@ -6102,28 +6102,28 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.1814838562221076</v>
+        <v>0.1363208079901951</v>
       </c>
       <c r="C167" t="n">
-        <v>0.1580781338944477</v>
+        <v>0.07747283459339341</v>
       </c>
       <c r="D167" t="n">
-        <v>0.1654123643866113</v>
+        <v>0.1384963403637603</v>
       </c>
       <c r="E167" t="n">
-        <v>0.186588924898598</v>
+        <v>0.1389646552494247</v>
       </c>
       <c r="F167" t="n">
-        <v>0.1814838562221076</v>
+        <v>0.1363208079901951</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
       </c>
       <c r="H167" t="n">
-        <v>0.7316775123820456</v>
+        <v>0.8295030862551153</v>
       </c>
       <c r="I167" t="n">
-        <v>0.9238368884483379</v>
+        <v>0.7470925001936856</v>
       </c>
       <c r="J167" t="n">
         <v>23</v>
@@ -6136,28 +6136,28 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.0906350256664972</v>
+        <v>0.02054275266536835</v>
       </c>
       <c r="C168" t="n">
-        <v>0.09515714483723475</v>
+        <v>0.02123824416978699</v>
       </c>
       <c r="D168" t="n">
-        <v>0.08725424959311627</v>
+        <v>0.01827116262556074</v>
       </c>
       <c r="E168" t="n">
-        <v>0.09735321310956635</v>
+        <v>0.01855553528968394</v>
       </c>
       <c r="F168" t="n">
-        <v>0.0906350256664972</v>
+        <v>0.02054275266536835</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
       </c>
       <c r="H168" t="n">
-        <v>0.7316775123820456</v>
+        <v>0.8295030862551153</v>
       </c>
       <c r="I168" t="n">
-        <v>0.9238368884483379</v>
+        <v>0.7470925001936856</v>
       </c>
       <c r="J168" t="n">
         <v>23</v>
@@ -6170,28 +6170,28 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.2847149662547433</v>
+        <v>0.06787106864003183</v>
       </c>
       <c r="C169" t="n">
-        <v>0.1324074256622875</v>
+        <v>0.01237616999067971</v>
       </c>
       <c r="D169" t="n">
-        <v>0.2728238377837519</v>
+        <v>0.06245710840797312</v>
       </c>
       <c r="E169" t="n">
-        <v>0.2490648963176759</v>
+        <v>0.06329953131063761</v>
       </c>
       <c r="F169" t="n">
-        <v>0.2449014738307584</v>
+        <v>0.08276020560003834</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
       </c>
       <c r="H169" t="n">
-        <v>0.7316775123820456</v>
+        <v>0.8295030862551153</v>
       </c>
       <c r="I169" t="n">
-        <v>0.9238368884483379</v>
+        <v>0.7470925001936856</v>
       </c>
       <c r="J169" t="n">
         <v>23</v>
@@ -6204,28 +6204,28 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.5067709443768081</v>
+        <v>0.6214348122077101</v>
       </c>
       <c r="C170" t="n">
-        <v>0.1269441042354039</v>
+        <v>0.09481569918697941</v>
       </c>
       <c r="D170" t="n">
-        <v>0.605412646776276</v>
+        <v>0.6429908764889876</v>
       </c>
       <c r="E170" t="n">
-        <v>0.5898247957711794</v>
+        <v>0.651644132830638</v>
       </c>
       <c r="F170" t="n">
-        <v>0.4332521254855256</v>
+        <v>0.4926609634058458</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
       </c>
       <c r="H170" t="n">
-        <v>0.7478923307642833</v>
+        <v>0.8910228527519802</v>
       </c>
       <c r="I170" t="n">
-        <v>0.8371698576089702</v>
+        <v>0.8531278056401426</v>
       </c>
       <c r="J170" t="n">
         <v>24</v>
@@ -6238,28 +6238,28 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.9046122151539215</v>
+        <v>0.8580809415138247</v>
       </c>
       <c r="C171" t="n">
-        <v>0.233347623105246</v>
+        <v>0.1742583945806179</v>
       </c>
       <c r="D171" t="n">
-        <v>0.8574290664120683</v>
+        <v>0.8429325175725474</v>
       </c>
       <c r="E171" t="n">
-        <v>0.8801330933955818</v>
+        <v>0.8463286511300639</v>
       </c>
       <c r="F171" t="n">
-        <v>0.6290392468604278</v>
+        <v>0.5822945585028668</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
       </c>
       <c r="H171" t="n">
-        <v>0.7478923307642833</v>
+        <v>0.8910228527519802</v>
       </c>
       <c r="I171" t="n">
-        <v>0.8371698576089702</v>
+        <v>0.8531278056401426</v>
       </c>
       <c r="J171" t="n">
         <v>24</v>
@@ -6272,28 +6272,28 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.1836091426817296</v>
+        <v>0.2128317120301097</v>
       </c>
       <c r="C172" t="n">
-        <v>0.1360363699628447</v>
+        <v>0.09380990470067463</v>
       </c>
       <c r="D172" t="n">
-        <v>0.1940129407129935</v>
+        <v>0.2160254759456723</v>
       </c>
       <c r="E172" t="n">
-        <v>0.1857956645123303</v>
+        <v>0.1947919158471929</v>
       </c>
       <c r="F172" t="n">
-        <v>0.1890199241583634</v>
+        <v>0.2107881715719975</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
       </c>
       <c r="H172" t="n">
-        <v>0.7478923307642833</v>
+        <v>0.8910228527519802</v>
       </c>
       <c r="I172" t="n">
-        <v>0.8371698576089702</v>
+        <v>0.8531278056401426</v>
       </c>
       <c r="J172" t="n">
         <v>24</v>
@@ -6306,28 +6306,28 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.2017624921769464</v>
+        <v>0.2001328686197869</v>
       </c>
       <c r="C173" t="n">
-        <v>0.03737437976443405</v>
+        <v>0.07343331063320273</v>
       </c>
       <c r="D173" t="n">
-        <v>0.1908001908214773</v>
+        <v>0.191625341082294</v>
       </c>
       <c r="E173" t="n">
-        <v>0.1908001908214773</v>
+        <v>0.191625341082294</v>
       </c>
       <c r="F173" t="n">
-        <v>0.2017624921769464</v>
+        <v>0.2001328686197869</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
       </c>
       <c r="H173" t="n">
-        <v>0.7478923307642833</v>
+        <v>0.8910228527519802</v>
       </c>
       <c r="I173" t="n">
-        <v>0.8371698576089702</v>
+        <v>0.8531278056401426</v>
       </c>
       <c r="J173" t="n">
         <v>24</v>
@@ -6340,28 +6340,28 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.1603070540770306</v>
+        <v>0.186967209311681</v>
       </c>
       <c r="C174" t="n">
-        <v>0.09434894521765397</v>
+        <v>0.05372057190277084</v>
       </c>
       <c r="D174" t="n">
-        <v>0.1483902559472643</v>
+        <v>0.1880027709430463</v>
       </c>
       <c r="E174" t="n">
-        <v>0.1529591403529215</v>
+        <v>0.1908322070460473</v>
       </c>
       <c r="F174" t="n">
-        <v>0.1555008086411949</v>
+        <v>0.2020593665848036</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
       </c>
       <c r="H174" t="n">
-        <v>0.7478923307642833</v>
+        <v>0.8910228527519802</v>
       </c>
       <c r="I174" t="n">
-        <v>0.8371698576089702</v>
+        <v>0.8531278056401426</v>
       </c>
       <c r="J174" t="n">
         <v>24</v>
@@ -6374,28 +6374,28 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.2132823265078675</v>
+        <v>0.1779757083217615</v>
       </c>
       <c r="C175" t="n">
-        <v>0.1227310325090216</v>
+        <v>0.1128166195265359</v>
       </c>
       <c r="D175" t="n">
-        <v>0.1928772310987573</v>
+        <v>0.1936071674090697</v>
       </c>
       <c r="E175" t="n">
-        <v>0.203887763859051</v>
+        <v>0.2082437496680397</v>
       </c>
       <c r="F175" t="n">
-        <v>0.2132823265078675</v>
+        <v>0.1779757083217615</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
       </c>
       <c r="H175" t="n">
-        <v>0.7478923307642833</v>
+        <v>0.8910228527519802</v>
       </c>
       <c r="I175" t="n">
-        <v>0.8371698576089702</v>
+        <v>0.8531278056401426</v>
       </c>
       <c r="J175" t="n">
         <v>24</v>
@@ -6408,28 +6408,28 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.09396879189126964</v>
+        <v>0.04467389059643322</v>
       </c>
       <c r="C176" t="n">
-        <v>0.05979289044456341</v>
+        <v>0.04195415738105265</v>
       </c>
       <c r="D176" t="n">
-        <v>0.08729560078578993</v>
+        <v>0.0444869361119468</v>
       </c>
       <c r="E176" t="n">
-        <v>0.08625966304599418</v>
+        <v>0.04689676325295093</v>
       </c>
       <c r="F176" t="n">
-        <v>0.09396879189126964</v>
+        <v>0.04467389059643322</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>0.7478923307642833</v>
+        <v>0.8910228527519802</v>
       </c>
       <c r="I176" t="n">
-        <v>0.8371698576089702</v>
+        <v>0.8531278056401426</v>
       </c>
       <c r="J176" t="n">
         <v>24</v>
@@ -6442,28 +6442,28 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.1171365118525677</v>
+        <v>0.157194436333464</v>
       </c>
       <c r="C177" t="n">
-        <v>0.04958037588711391</v>
+        <v>0.04065665119269711</v>
       </c>
       <c r="D177" t="n">
-        <v>0.1152343720950791</v>
+        <v>0.1734839107539828</v>
       </c>
       <c r="E177" t="n">
-        <v>0.1322678670166181</v>
+        <v>0.1578867518636038</v>
       </c>
       <c r="F177" t="n">
-        <v>0.1139323488904535</v>
+        <v>0.1734702404214419</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>0.7478923307642833</v>
+        <v>0.8910228527519802</v>
       </c>
       <c r="I177" t="n">
-        <v>0.8371698576089702</v>
+        <v>0.8531278056401426</v>
       </c>
       <c r="J177" t="n">
         <v>24</v>
@@ -6476,28 +6476,28 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.4541895034591427</v>
+        <v>0.451621450005838</v>
       </c>
       <c r="C178" t="n">
-        <v>0.06150672098188579</v>
+        <v>0.03104319710020506</v>
       </c>
       <c r="D178" t="n">
-        <v>0.5112723300013078</v>
+        <v>0.477515081957201</v>
       </c>
       <c r="E178" t="n">
-        <v>0.5027276300930063</v>
+        <v>0.4784998153865262</v>
       </c>
       <c r="F178" t="n">
-        <v>0.3878782755102015</v>
+        <v>0.4200536682697525</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
       </c>
       <c r="H178" t="n">
-        <v>0.8799632820557456</v>
+        <v>0.9346755193484031</v>
       </c>
       <c r="I178" t="n">
-        <v>0.6760500636197128</v>
+        <v>0.6693305022110483</v>
       </c>
       <c r="J178" t="n">
         <v>25</v>
@@ -6510,28 +6510,28 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.7616971210356468</v>
+        <v>0.7597214051701894</v>
       </c>
       <c r="C179" t="n">
-        <v>0.1014572405246683</v>
+        <v>0.1271827724703667</v>
       </c>
       <c r="D179" t="n">
-        <v>0.6838507982470005</v>
+        <v>0.8465058319316718</v>
       </c>
       <c r="E179" t="n">
-        <v>0.6916999520305074</v>
+        <v>0.8448938383101693</v>
       </c>
       <c r="F179" t="n">
-        <v>0.5202278657707137</v>
+        <v>0.4593626016574233</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
       </c>
       <c r="H179" t="n">
-        <v>0.8799632820557456</v>
+        <v>0.9346755193484031</v>
       </c>
       <c r="I179" t="n">
-        <v>0.6760500636197128</v>
+        <v>0.6693305022110483</v>
       </c>
       <c r="J179" t="n">
         <v>25</v>
@@ -6544,28 +6544,28 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.1094921334723077</v>
+        <v>0.09369676813106449</v>
       </c>
       <c r="C180" t="n">
-        <v>0.04159923683160107</v>
+        <v>0.01865133380457584</v>
       </c>
       <c r="D180" t="n">
-        <v>0.1107674488396015</v>
+        <v>0.06821964293888763</v>
       </c>
       <c r="E180" t="n">
-        <v>0.09763489936057045</v>
+        <v>0.07051670597994618</v>
       </c>
       <c r="F180" t="n">
-        <v>0.11090787120302</v>
+        <v>0.09412142035836606</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
       </c>
       <c r="H180" t="n">
-        <v>0.8799632820557456</v>
+        <v>0.9346755193484031</v>
       </c>
       <c r="I180" t="n">
-        <v>0.6760500636197128</v>
+        <v>0.6693305022110483</v>
       </c>
       <c r="J180" t="n">
         <v>25</v>
@@ -6578,28 +6578,28 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.1139658411344757</v>
+        <v>0.1067697640369281</v>
       </c>
       <c r="C181" t="n">
-        <v>0.0350288537389236</v>
+        <v>0.04988861144595771</v>
       </c>
       <c r="D181" t="n">
-        <v>0.1134138268521264</v>
+        <v>0.09712568190820217</v>
       </c>
       <c r="E181" t="n">
-        <v>0.1134138268521264</v>
+        <v>0.09670368191217076</v>
       </c>
       <c r="F181" t="n">
-        <v>0.1134706485770382</v>
+        <v>0.1067697640369281</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
       </c>
       <c r="H181" t="n">
-        <v>0.8799632820557456</v>
+        <v>0.9346755193484031</v>
       </c>
       <c r="I181" t="n">
-        <v>0.6760500636197128</v>
+        <v>0.6693305022110483</v>
       </c>
       <c r="J181" t="n">
         <v>25</v>
@@ -6612,28 +6612,28 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.09083586115368929</v>
+        <v>0.07804815912317106</v>
       </c>
       <c r="C182" t="n">
-        <v>0.01315642426147308</v>
+        <v>0.02964592731076134</v>
       </c>
       <c r="D182" t="n">
-        <v>0.1065318801498975</v>
+        <v>0.09096248088329763</v>
       </c>
       <c r="E182" t="n">
-        <v>0.1060945227611958</v>
+        <v>0.09433173755155405</v>
       </c>
       <c r="F182" t="n">
-        <v>0.1110474535534917</v>
+        <v>0.06703239616633497</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>0.8799632820557456</v>
+        <v>0.9346755193484031</v>
       </c>
       <c r="I182" t="n">
-        <v>0.6760500636197128</v>
+        <v>0.6693305022110483</v>
       </c>
       <c r="J182" t="n">
         <v>25</v>
@@ -6646,28 +6646,28 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.1043870757317936</v>
+        <v>0.07126647271461509</v>
       </c>
       <c r="C183" t="n">
-        <v>0.001990785730616039</v>
+        <v>0.02089016152067511</v>
       </c>
       <c r="D183" t="n">
-        <v>0.1052020690869383</v>
+        <v>0.08506306501409013</v>
       </c>
       <c r="E183" t="n">
-        <v>0.1049936851102989</v>
+        <v>0.08752933457762538</v>
       </c>
       <c r="F183" t="n">
-        <v>0.1043870757317936</v>
+        <v>0.07637982022360301</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
       </c>
       <c r="H183" t="n">
-        <v>0.8799632820557456</v>
+        <v>0.9346755193484031</v>
       </c>
       <c r="I183" t="n">
-        <v>0.6760500636197128</v>
+        <v>0.6693305022110483</v>
       </c>
       <c r="J183" t="n">
         <v>25</v>
@@ -6680,28 +6680,28 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.04691193266892033</v>
+        <v>0.02674365385292565</v>
       </c>
       <c r="C184" t="n">
-        <v>0.03442089894714431</v>
+        <v>0.01644881988370957</v>
       </c>
       <c r="D184" t="n">
-        <v>0.04213759836594879</v>
+        <v>0.02699483205330003</v>
       </c>
       <c r="E184" t="n">
-        <v>0.04395759424576497</v>
+        <v>0.02889819959852913</v>
       </c>
       <c r="F184" t="n">
-        <v>0.04691193266892033</v>
+        <v>0.02674365385292565</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
       </c>
       <c r="H184" t="n">
-        <v>0.8799632820557456</v>
+        <v>0.9346755193484031</v>
       </c>
       <c r="I184" t="n">
-        <v>0.6760500636197128</v>
+        <v>0.6693305022110483</v>
       </c>
       <c r="J184" t="n">
         <v>25</v>
@@ -6714,28 +6714,28 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.08050874570620176</v>
+        <v>0.05709482625454949</v>
       </c>
       <c r="C185" t="n">
-        <v>0.009295026458827006</v>
+        <v>0.01545523347622918</v>
       </c>
       <c r="D185" t="n">
-        <v>0.07758206036101312</v>
+        <v>0.05792645107274591</v>
       </c>
       <c r="E185" t="n">
-        <v>0.07206557657957627</v>
+        <v>0.05728160317424554</v>
       </c>
       <c r="F185" t="n">
-        <v>0.06604209750954404</v>
+        <v>0.06652272991386003</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
       </c>
       <c r="H185" t="n">
-        <v>0.8799632820557456</v>
+        <v>0.9346755193484031</v>
       </c>
       <c r="I185" t="n">
-        <v>0.6760500636197128</v>
+        <v>0.6693305022110483</v>
       </c>
       <c r="J185" t="n">
         <v>25</v>
@@ -6748,28 +6748,28 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.6248790282678783</v>
+        <v>0.6350488387864405</v>
       </c>
       <c r="C186" t="n">
-        <v>0.1442662448757777</v>
+        <v>0.1264822449594031</v>
       </c>
       <c r="D186" t="n">
-        <v>0.630010633959472</v>
+        <v>0.7142998099009606</v>
       </c>
       <c r="E186" t="n">
-        <v>0.6241212330539424</v>
+        <v>0.6936724295267007</v>
       </c>
       <c r="F186" t="n">
-        <v>0.5354320819206297</v>
+        <v>0.4737517269157158</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
       </c>
       <c r="H186" t="n">
-        <v>0.7843121063913522</v>
+        <v>0.7498131599226859</v>
       </c>
       <c r="I186" t="n">
-        <v>0.8978604609587866</v>
+        <v>0.901714727775882</v>
       </c>
       <c r="J186" t="n">
         <v>26</v>
@@ -6782,28 +6782,28 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.9681319335689629</v>
+        <v>0.7673364502939293</v>
       </c>
       <c r="C187" t="n">
-        <v>0.2793098131609515</v>
+        <v>0.219226698310446</v>
       </c>
       <c r="D187" t="n">
-        <v>0.9792454121614897</v>
+        <v>0.765184017417586</v>
       </c>
       <c r="E187" t="n">
-        <v>0.9794582465671831</v>
+        <v>0.7546835314153547</v>
       </c>
       <c r="F187" t="n">
-        <v>0.5973436866357222</v>
+        <v>0.5997759561309667</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
       </c>
       <c r="H187" t="n">
-        <v>0.7843121063913522</v>
+        <v>0.7498131599226859</v>
       </c>
       <c r="I187" t="n">
-        <v>0.8978604609587866</v>
+        <v>0.901714727775882</v>
       </c>
       <c r="J187" t="n">
         <v>26</v>
@@ -6816,28 +6816,28 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.2286427931974713</v>
+        <v>0.2682762557744049</v>
       </c>
       <c r="C188" t="n">
-        <v>0.06616223400010737</v>
+        <v>0.07766921854146183</v>
       </c>
       <c r="D188" t="n">
-        <v>0.2211206183217266</v>
+        <v>0.2695998338084894</v>
       </c>
       <c r="E188" t="n">
-        <v>0.2205742120216681</v>
+        <v>0.2632745538254661</v>
       </c>
       <c r="F188" t="n">
-        <v>0.2286427931974713</v>
+        <v>0.2682762557744049</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
       </c>
       <c r="H188" t="n">
-        <v>0.7843121063913522</v>
+        <v>0.7498131599226859</v>
       </c>
       <c r="I188" t="n">
-        <v>0.8978604609587866</v>
+        <v>0.901714727775882</v>
       </c>
       <c r="J188" t="n">
         <v>26</v>
@@ -6850,28 +6850,28 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.2774600374250175</v>
+        <v>0.1775204966184175</v>
       </c>
       <c r="C189" t="n">
-        <v>0.128510349826394</v>
+        <v>0.1271788659825558</v>
       </c>
       <c r="D189" t="n">
-        <v>0.2774600374250175</v>
+        <v>0.1908248747373068</v>
       </c>
       <c r="E189" t="n">
-        <v>0.2774600374250175</v>
+        <v>0.1915152671239283</v>
       </c>
       <c r="F189" t="n">
-        <v>0.2774600374250175</v>
+        <v>0.1760249679048652</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
       </c>
       <c r="H189" t="n">
-        <v>0.7843121063913522</v>
+        <v>0.7498131599226859</v>
       </c>
       <c r="I189" t="n">
-        <v>0.8978604609587866</v>
+        <v>0.901714727775882</v>
       </c>
       <c r="J189" t="n">
         <v>26</v>
@@ -6884,28 +6884,28 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.1958768144479547</v>
+        <v>0.2665078081651795</v>
       </c>
       <c r="C190" t="n">
-        <v>0.141522280471285</v>
+        <v>0.1336832907647041</v>
       </c>
       <c r="D190" t="n">
-        <v>0.2027123437482961</v>
+        <v>0.244829685391792</v>
       </c>
       <c r="E190" t="n">
-        <v>0.2086174277286192</v>
+        <v>0.2446830451925014</v>
       </c>
       <c r="F190" t="n">
-        <v>0.2010652126955274</v>
+        <v>0.2500089677474825</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
       </c>
       <c r="H190" t="n">
-        <v>0.7843121063913522</v>
+        <v>0.7498131599226859</v>
       </c>
       <c r="I190" t="n">
-        <v>0.8978604609587866</v>
+        <v>0.901714727775882</v>
       </c>
       <c r="J190" t="n">
         <v>26</v>
@@ -6918,28 +6918,28 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.183046715701889</v>
+        <v>0.2219109115305788</v>
       </c>
       <c r="C191" t="n">
-        <v>0.1581338551501882</v>
+        <v>0.1872691791343182</v>
       </c>
       <c r="D191" t="n">
-        <v>0.1766537581628386</v>
+        <v>0.2098016130266316</v>
       </c>
       <c r="E191" t="n">
-        <v>0.1877272343454309</v>
+        <v>0.2119317777151196</v>
       </c>
       <c r="F191" t="n">
-        <v>0.183046715701889</v>
+        <v>0.2219109115305788</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
       </c>
       <c r="H191" t="n">
-        <v>0.7843121063913522</v>
+        <v>0.7498131599226859</v>
       </c>
       <c r="I191" t="n">
-        <v>0.8978604609587866</v>
+        <v>0.901714727775882</v>
       </c>
       <c r="J191" t="n">
         <v>26</v>
@@ -6952,28 +6952,28 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.05349212538703855</v>
+        <v>0.06124046384778433</v>
       </c>
       <c r="C192" t="n">
-        <v>0.06763247395868602</v>
+        <v>0.07766631036890444</v>
       </c>
       <c r="D192" t="n">
-        <v>0.0494970965232288</v>
+        <v>0.0585146398325331</v>
       </c>
       <c r="E192" t="n">
-        <v>0.0533010339719384</v>
+        <v>0.05683930604483976</v>
       </c>
       <c r="F192" t="n">
-        <v>0.05349212538703855</v>
+        <v>0.06124046384778433</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
       </c>
       <c r="H192" t="n">
-        <v>0.7843121063913522</v>
+        <v>0.7498131599226859</v>
       </c>
       <c r="I192" t="n">
-        <v>0.8978604609587866</v>
+        <v>0.901714727775882</v>
       </c>
       <c r="J192" t="n">
         <v>26</v>
@@ -6986,28 +6986,28 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.199409786518503</v>
+        <v>0.1764784637719765</v>
       </c>
       <c r="C193" t="n">
-        <v>0.06894068629578456</v>
+        <v>0.0815748400936941</v>
       </c>
       <c r="D193" t="n">
-        <v>0.1821032528650902</v>
+        <v>0.1912968457387106</v>
       </c>
       <c r="E193" t="n">
-        <v>0.190015437295306</v>
+        <v>0.1800325702430106</v>
       </c>
       <c r="F193" t="n">
-        <v>0.1758391232468491</v>
+        <v>0.1540408314778341</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
       </c>
       <c r="H193" t="n">
-        <v>0.7843121063913522</v>
+        <v>0.7498131599226859</v>
       </c>
       <c r="I193" t="n">
-        <v>0.8978604609587866</v>
+        <v>0.901714727775882</v>
       </c>
       <c r="J193" t="n">
         <v>26</v>
@@ -7020,28 +7020,28 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.527095382845575</v>
+        <v>0.6324097136826932</v>
       </c>
       <c r="C194" t="n">
-        <v>0.07776043849771627</v>
+        <v>0.07908278829752133</v>
       </c>
       <c r="D194" t="n">
-        <v>0.5244276808701689</v>
+        <v>0.6609975585535414</v>
       </c>
       <c r="E194" t="n">
-        <v>0.5561226258805669</v>
+        <v>0.6670816474176979</v>
       </c>
       <c r="F194" t="n">
-        <v>0.4244393256449596</v>
+        <v>0.43753235784329</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
       </c>
       <c r="H194" t="n">
-        <v>0.7132353896418999</v>
+        <v>0.9208888893326153</v>
       </c>
       <c r="I194" t="n">
-        <v>0.8130752482901646</v>
+        <v>0.8286090777360263</v>
       </c>
       <c r="J194" t="n">
         <v>27</v>
@@ -7054,28 +7054,28 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.8809960810052873</v>
+        <v>0.7216467906087256</v>
       </c>
       <c r="C195" t="n">
-        <v>0.1722858070952075</v>
+        <v>0.1585120883326535</v>
       </c>
       <c r="D195" t="n">
-        <v>0.8123172592757442</v>
+        <v>0.7841783046569568</v>
       </c>
       <c r="E195" t="n">
-        <v>0.8202534361884226</v>
+        <v>0.789760162340196</v>
       </c>
       <c r="F195" t="n">
-        <v>0.4668885621794611</v>
+        <v>0.3786243753038213</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>0.7132353896418999</v>
+        <v>0.9208888893326153</v>
       </c>
       <c r="I195" t="n">
-        <v>0.8130752482901646</v>
+        <v>0.8286090777360263</v>
       </c>
       <c r="J195" t="n">
         <v>27</v>
@@ -7088,28 +7088,28 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.1483530507090877</v>
+        <v>0.1658601853024729</v>
       </c>
       <c r="C196" t="n">
-        <v>0.08131623133145151</v>
+        <v>0.05784519101718168</v>
       </c>
       <c r="D196" t="n">
-        <v>0.1451568499624841</v>
+        <v>0.1712529344858049</v>
       </c>
       <c r="E196" t="n">
-        <v>0.1496663822787149</v>
+        <v>0.1608260009580075</v>
       </c>
       <c r="F196" t="n">
-        <v>0.1483530507090877</v>
+        <v>0.1659508357457665</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
       </c>
       <c r="H196" t="n">
-        <v>0.7132353896418999</v>
+        <v>0.9208888893326153</v>
       </c>
       <c r="I196" t="n">
-        <v>0.8130752482901646</v>
+        <v>0.8286090777360263</v>
       </c>
       <c r="J196" t="n">
         <v>27</v>
@@ -7122,28 +7122,28 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.1376559773578213</v>
+        <v>0.2007146733989357</v>
       </c>
       <c r="C197" t="n">
-        <v>0.09498008863549946</v>
+        <v>0.05470751430980113</v>
       </c>
       <c r="D197" t="n">
-        <v>0.1499793008727683</v>
+        <v>0.2007146733989357</v>
       </c>
       <c r="E197" t="n">
-        <v>0.1499598784842189</v>
+        <v>0.2007146733989357</v>
       </c>
       <c r="F197" t="n">
-        <v>0.1419035359108071</v>
+        <v>0.2007146733989357</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
       </c>
       <c r="H197" t="n">
-        <v>0.7132353896418999</v>
+        <v>0.9208888893326153</v>
       </c>
       <c r="I197" t="n">
-        <v>0.8130752482901646</v>
+        <v>0.8286090777360263</v>
       </c>
       <c r="J197" t="n">
         <v>27</v>
@@ -7156,28 +7156,28 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.1591379100786391</v>
+        <v>0.1945255224600971</v>
       </c>
       <c r="C198" t="n">
-        <v>0.03229540895898068</v>
+        <v>0.04782230524312932</v>
       </c>
       <c r="D198" t="n">
-        <v>0.1651539535743941</v>
+        <v>0.1939449167354703</v>
       </c>
       <c r="E198" t="n">
-        <v>0.1703682525774298</v>
+        <v>0.1913464152040976</v>
       </c>
       <c r="F198" t="n">
-        <v>0.154286312935411</v>
+        <v>0.1928693150200896</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
       </c>
       <c r="H198" t="n">
-        <v>0.7132353896418999</v>
+        <v>0.9208888893326153</v>
       </c>
       <c r="I198" t="n">
-        <v>0.8130752482901646</v>
+        <v>0.8286090777360263</v>
       </c>
       <c r="J198" t="n">
         <v>27</v>
@@ -7190,28 +7190,28 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.1664098520793436</v>
+        <v>0.2076867966238865</v>
       </c>
       <c r="C199" t="n">
-        <v>0.1045343462343818</v>
+        <v>0.09237671452091548</v>
       </c>
       <c r="D199" t="n">
-        <v>0.146278648750402</v>
+        <v>0.1796692442252022</v>
       </c>
       <c r="E199" t="n">
-        <v>0.1610866633600077</v>
+        <v>0.1797275855951079</v>
       </c>
       <c r="F199" t="n">
-        <v>0.1664098520793436</v>
+        <v>0.2076867966238865</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
       </c>
       <c r="H199" t="n">
-        <v>0.7132353896418999</v>
+        <v>0.9208888893326153</v>
       </c>
       <c r="I199" t="n">
-        <v>0.8130752482901646</v>
+        <v>0.8286090777360263</v>
       </c>
       <c r="J199" t="n">
         <v>27</v>
@@ -7224,28 +7224,28 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.05091320192918528</v>
+        <v>0.01705168255433674</v>
       </c>
       <c r="C200" t="n">
-        <v>0.02769453334085645</v>
+        <v>0.01866524689252286</v>
       </c>
       <c r="D200" t="n">
-        <v>0.04491891384408706</v>
+        <v>0.01861471836115373</v>
       </c>
       <c r="E200" t="n">
-        <v>0.0442625024804971</v>
+        <v>0.018969617867067</v>
       </c>
       <c r="F200" t="n">
-        <v>0.05091320192918528</v>
+        <v>0.01705168255433674</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
       </c>
       <c r="H200" t="n">
-        <v>0.7132353896418999</v>
+        <v>0.9208888893326153</v>
       </c>
       <c r="I200" t="n">
-        <v>0.8130752482901646</v>
+        <v>0.8286090777360263</v>
       </c>
       <c r="J200" t="n">
         <v>27</v>
@@ -7258,28 +7258,28 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.1442347628817325</v>
+        <v>0.1469293900593772</v>
       </c>
       <c r="C201" t="n">
-        <v>0.03443975637534617</v>
+        <v>0.05690245785014282</v>
       </c>
       <c r="D201" t="n">
-        <v>0.1370612813651171</v>
+        <v>0.1679982140275879</v>
       </c>
       <c r="E201" t="n">
-        <v>0.1339715027304232</v>
+        <v>0.1602525941327924</v>
       </c>
       <c r="F201" t="n">
-        <v>0.1391541736902851</v>
+        <v>0.1591641687891496</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
       </c>
       <c r="H201" t="n">
-        <v>0.7132353896418999</v>
+        <v>0.9208888893326153</v>
       </c>
       <c r="I201" t="n">
-        <v>0.8130752482901646</v>
+        <v>0.8286090777360263</v>
       </c>
       <c r="J201" t="n">
         <v>27</v>
@@ -7292,28 +7292,28 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.4079333200149703</v>
+        <v>0.4166784061530523</v>
       </c>
       <c r="C202" t="n">
-        <v>0.05723451614507265</v>
+        <v>0.0303885999670735</v>
       </c>
       <c r="D202" t="n">
-        <v>0.4416899395612225</v>
+        <v>0.4441958199935458</v>
       </c>
       <c r="E202" t="n">
-        <v>0.4465677220127856</v>
+        <v>0.4447155032707987</v>
       </c>
       <c r="F202" t="n">
-        <v>0.4109891746318232</v>
+        <v>0.3991192561023932</v>
       </c>
       <c r="G202" t="n">
-        <v>0.592914581798378</v>
+        <v>0.8111593932042999</v>
       </c>
       <c r="H202" t="n">
-        <v>0.8494580038104775</v>
+        <v>0.8259625303720783</v>
       </c>
       <c r="I202" t="n">
-        <v>0.6614947010681611</v>
+        <v>0.6366450789310258</v>
       </c>
       <c r="J202" t="n">
         <v>28</v>
@@ -7326,28 +7326,28 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.5488077441959002</v>
+        <v>0.554780809294963</v>
       </c>
       <c r="C203" t="n">
-        <v>0.06168928169300421</v>
+        <v>0.06122625375055024</v>
       </c>
       <c r="D203" t="n">
-        <v>0.6042838883417256</v>
+        <v>0.5591166035174103</v>
       </c>
       <c r="E203" t="n">
-        <v>0.6138721114419019</v>
+        <v>0.5714634133607193</v>
       </c>
       <c r="F203" t="n">
-        <v>0.449963669900917</v>
+        <v>0.5117653599560119</v>
       </c>
       <c r="G203" t="n">
-        <v>0.592914581798378</v>
+        <v>0.8111593932042999</v>
       </c>
       <c r="H203" t="n">
-        <v>0.8494580038104775</v>
+        <v>0.8259625303720783</v>
       </c>
       <c r="I203" t="n">
-        <v>0.6614947010681611</v>
+        <v>0.6366450789310258</v>
       </c>
       <c r="J203" t="n">
         <v>28</v>
@@ -7360,28 +7360,28 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.09260593712216503</v>
+        <v>0.1085851044567421</v>
       </c>
       <c r="C204" t="n">
-        <v>0.02791981210021789</v>
+        <v>0.03242188653868437</v>
       </c>
       <c r="D204" t="n">
-        <v>0.09269422239626886</v>
+        <v>0.100128438072073</v>
       </c>
       <c r="E204" t="n">
-        <v>0.07191534626983917</v>
+        <v>0.07581532904807967</v>
       </c>
       <c r="F204" t="n">
-        <v>0.09558104901386739</v>
+        <v>0.09894168023853407</v>
       </c>
       <c r="G204" t="n">
-        <v>0.592914581798378</v>
+        <v>0.8111593932042999</v>
       </c>
       <c r="H204" t="n">
-        <v>0.8494580038104775</v>
+        <v>0.8259625303720783</v>
       </c>
       <c r="I204" t="n">
-        <v>0.6614947010681611</v>
+        <v>0.6366450789310258</v>
       </c>
       <c r="J204" t="n">
         <v>28</v>
@@ -7394,28 +7394,28 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.08292010960398047</v>
+        <v>0.1267184193719719</v>
       </c>
       <c r="C205" t="n">
-        <v>0.05006834409973367</v>
+        <v>0.03934920887087787</v>
       </c>
       <c r="D205" t="n">
-        <v>0.08495425023394104</v>
+        <v>0.1291906955248958</v>
       </c>
       <c r="E205" t="n">
-        <v>0.08175071289015128</v>
+        <v>0.1270737105167353</v>
       </c>
       <c r="F205" t="n">
-        <v>0.08274701120098574</v>
+        <v>0.1266322318001751</v>
       </c>
       <c r="G205" t="n">
-        <v>0.592914581798378</v>
+        <v>0.8111593932042999</v>
       </c>
       <c r="H205" t="n">
-        <v>0.8494580038104775</v>
+        <v>0.8259625303720783</v>
       </c>
       <c r="I205" t="n">
-        <v>0.6614947010681611</v>
+        <v>0.6366450789310258</v>
       </c>
       <c r="J205" t="n">
         <v>28</v>
@@ -7428,28 +7428,28 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.09811037058643378</v>
+        <v>0.1182375011412378</v>
       </c>
       <c r="C206" t="n">
-        <v>0.02553164710913632</v>
+        <v>0.02499834049511804</v>
       </c>
       <c r="D206" t="n">
-        <v>0.1001650429090399</v>
+        <v>0.1204434964600868</v>
       </c>
       <c r="E206" t="n">
-        <v>0.1062369218539291</v>
+        <v>0.130199097592041</v>
       </c>
       <c r="F206" t="n">
-        <v>0.09815200417476855</v>
+        <v>0.1400036133675446</v>
       </c>
       <c r="G206" t="n">
-        <v>0.592914581798378</v>
+        <v>0.8111593932042999</v>
       </c>
       <c r="H206" t="n">
-        <v>0.8494580038104775</v>
+        <v>0.8259625303720783</v>
       </c>
       <c r="I206" t="n">
-        <v>0.6614947010681611</v>
+        <v>0.6366450789310258</v>
       </c>
       <c r="J206" t="n">
         <v>28</v>
@@ -7462,28 +7462,28 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.09503911034068681</v>
+        <v>0.1120149585722056</v>
       </c>
       <c r="C207" t="n">
-        <v>0.01428674931530933</v>
+        <v>0.005751946395598541</v>
       </c>
       <c r="D207" t="n">
-        <v>0.08481395322124648</v>
+        <v>0.1083208117443574</v>
       </c>
       <c r="E207" t="n">
-        <v>0.08544550861878489</v>
+        <v>0.1162818153380875</v>
       </c>
       <c r="F207" t="n">
-        <v>0.09503911034068681</v>
+        <v>0.1120149585722056</v>
       </c>
       <c r="G207" t="n">
-        <v>0.592914581798378</v>
+        <v>0.8111593932042999</v>
       </c>
       <c r="H207" t="n">
-        <v>0.8494580038104775</v>
+        <v>0.8259625303720783</v>
       </c>
       <c r="I207" t="n">
-        <v>0.6614947010681611</v>
+        <v>0.6366450789310258</v>
       </c>
       <c r="J207" t="n">
         <v>28</v>
@@ -7496,28 +7496,28 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.03505842606472616</v>
+        <v>0.03716828660970305</v>
       </c>
       <c r="C208" t="n">
-        <v>0.02277385833071841</v>
+        <v>0.0195610581044282</v>
       </c>
       <c r="D208" t="n">
-        <v>0.02819153690218273</v>
+        <v>0.03404508559966421</v>
       </c>
       <c r="E208" t="n">
-        <v>0.02960839162656834</v>
+        <v>0.03683967240607045</v>
       </c>
       <c r="F208" t="n">
-        <v>0.03505842606472616</v>
+        <v>0.03716828660970305</v>
       </c>
       <c r="G208" t="n">
-        <v>0.592914581798378</v>
+        <v>0.8111593932042999</v>
       </c>
       <c r="H208" t="n">
-        <v>0.8494580038104775</v>
+        <v>0.8259625303720783</v>
       </c>
       <c r="I208" t="n">
-        <v>0.6614947010681611</v>
+        <v>0.6366450789310258</v>
       </c>
       <c r="J208" t="n">
         <v>28</v>
@@ -7530,28 +7530,28 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.07280959085295305</v>
+        <v>0.06803825621843025</v>
       </c>
       <c r="C209" t="n">
-        <v>0.01558531612382342</v>
+        <v>0.00937523151498651</v>
       </c>
       <c r="D209" t="n">
-        <v>0.07492458238120295</v>
+        <v>0.06892164162357024</v>
       </c>
       <c r="E209" t="n">
-        <v>0.07131034810559442</v>
+        <v>0.0722256619280922</v>
       </c>
       <c r="F209" t="n">
-        <v>0.08310581322738517</v>
+        <v>0.05846597269956653</v>
       </c>
       <c r="G209" t="n">
-        <v>0.592914581798378</v>
+        <v>0.8111593932042999</v>
       </c>
       <c r="H209" t="n">
-        <v>0.8494580038104775</v>
+        <v>0.8259625303720783</v>
       </c>
       <c r="I209" t="n">
-        <v>0.6614947010681611</v>
+        <v>0.6366450789310258</v>
       </c>
       <c r="J209" t="n">
         <v>28</v>
@@ -7564,28 +7564,28 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.4115777445903522</v>
+        <v>0.3915165198467603</v>
       </c>
       <c r="C210" t="n">
-        <v>0.03560470561748893</v>
+        <v>0.02971218809054415</v>
       </c>
       <c r="D210" t="n">
-        <v>0.4575851743337035</v>
+        <v>0.4492191714549901</v>
       </c>
       <c r="E210" t="n">
-        <v>0.4507861526071191</v>
+        <v>0.4421652283121776</v>
       </c>
       <c r="F210" t="n">
-        <v>0.391685699957252</v>
+        <v>0.3779311361505309</v>
       </c>
       <c r="G210" t="n">
-        <v>0.6634866977974089</v>
+        <v>0.681458843878832</v>
       </c>
       <c r="H210" t="n">
-        <v>0.7975755554846481</v>
+        <v>0.9085010311631759</v>
       </c>
       <c r="I210" t="n">
-        <v>0.6072128844188848</v>
+        <v>0.5807791275880604</v>
       </c>
       <c r="J210" t="n">
         <v>29</v>
@@ -7598,28 +7598,28 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.5838289778684513</v>
+        <v>0.4866147730959205</v>
       </c>
       <c r="C211" t="n">
-        <v>0.04112956423791768</v>
+        <v>0.0461831211987289</v>
       </c>
       <c r="D211" t="n">
-        <v>0.5755049282129597</v>
+        <v>0.4413049480435521</v>
       </c>
       <c r="E211" t="n">
-        <v>0.6099660648949286</v>
+        <v>0.4705934795756378</v>
       </c>
       <c r="F211" t="n">
-        <v>0.3885066589756129</v>
+        <v>0.3755388932744105</v>
       </c>
       <c r="G211" t="n">
-        <v>0.6634866977974089</v>
+        <v>0.681458843878832</v>
       </c>
       <c r="H211" t="n">
-        <v>0.7975755554846481</v>
+        <v>0.9085010311631759</v>
       </c>
       <c r="I211" t="n">
-        <v>0.6072128844188848</v>
+        <v>0.5807791275880604</v>
       </c>
       <c r="J211" t="n">
         <v>29</v>
@@ -7632,28 +7632,28 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.08886050028749275</v>
+        <v>0.02373202459629578</v>
       </c>
       <c r="C212" t="n">
-        <v>0.0206104370871424</v>
+        <v>0.01756375621933481</v>
       </c>
       <c r="D212" t="n">
-        <v>0.09324746221167113</v>
+        <v>0.02566460983276015</v>
       </c>
       <c r="E212" t="n">
-        <v>0.0835486965034327</v>
+        <v>0.04278846813055938</v>
       </c>
       <c r="F212" t="n">
-        <v>0.08052825820113703</v>
+        <v>0.02534992995019423</v>
       </c>
       <c r="G212" t="n">
-        <v>0.6634866977974089</v>
+        <v>0.681458843878832</v>
       </c>
       <c r="H212" t="n">
-        <v>0.7975755554846481</v>
+        <v>0.9085010311631759</v>
       </c>
       <c r="I212" t="n">
-        <v>0.6072128844188848</v>
+        <v>0.5807791275880604</v>
       </c>
       <c r="J212" t="n">
         <v>29</v>
@@ -7666,28 +7666,28 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.1016689663433944</v>
+        <v>0.06086028431521186</v>
       </c>
       <c r="C213" t="n">
-        <v>0.0375582046669782</v>
+        <v>0.0119461094520186</v>
       </c>
       <c r="D213" t="n">
-        <v>0.09253201023895277</v>
+        <v>0.06198328174730128</v>
       </c>
       <c r="E213" t="n">
-        <v>0.09556573972825264</v>
+        <v>0.06933133241851029</v>
       </c>
       <c r="F213" t="n">
-        <v>0.09854696140440107</v>
+        <v>0.05217917169306403</v>
       </c>
       <c r="G213" t="n">
-        <v>0.6634866977974089</v>
+        <v>0.681458843878832</v>
       </c>
       <c r="H213" t="n">
-        <v>0.7975755554846481</v>
+        <v>0.9085010311631759</v>
       </c>
       <c r="I213" t="n">
-        <v>0.6072128844188848</v>
+        <v>0.5807791275880604</v>
       </c>
       <c r="J213" t="n">
         <v>29</v>
@@ -7700,28 +7700,28 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.08844380748811223</v>
+        <v>0.03235844243570082</v>
       </c>
       <c r="C214" t="n">
-        <v>0.01616084252367171</v>
+        <v>0.005226118747450706</v>
       </c>
       <c r="D214" t="n">
-        <v>0.08440864558498749</v>
+        <v>0.02988842590474912</v>
       </c>
       <c r="E214" t="n">
-        <v>0.08811598981407415</v>
+        <v>0.03270154403098324</v>
       </c>
       <c r="F214" t="n">
-        <v>0.07910811686914192</v>
+        <v>0.03876493050669243</v>
       </c>
       <c r="G214" t="n">
-        <v>0.6634866977974089</v>
+        <v>0.681458843878832</v>
       </c>
       <c r="H214" t="n">
-        <v>0.7975755554846481</v>
+        <v>0.9085010311631759</v>
       </c>
       <c r="I214" t="n">
-        <v>0.6072128844188848</v>
+        <v>0.5807791275880604</v>
       </c>
       <c r="J214" t="n">
         <v>29</v>
@@ -7734,28 +7734,28 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.08551679178560721</v>
+        <v>0.04367516215796821</v>
       </c>
       <c r="C215" t="n">
-        <v>0.01706653940771133</v>
+        <v>0.007927896725982752</v>
       </c>
       <c r="D215" t="n">
-        <v>0.0980984260372352</v>
+        <v>0.04791811137806563</v>
       </c>
       <c r="E215" t="n">
-        <v>0.09833996711664258</v>
+        <v>0.05004909439944401</v>
       </c>
       <c r="F215" t="n">
-        <v>0.08551679178560721</v>
+        <v>0.04288240406878133</v>
       </c>
       <c r="G215" t="n">
-        <v>0.6634866977974089</v>
+        <v>0.681458843878832</v>
       </c>
       <c r="H215" t="n">
-        <v>0.7975755554846481</v>
+        <v>0.9085010311631759</v>
       </c>
       <c r="I215" t="n">
-        <v>0.6072128844188848</v>
+        <v>0.5807791275880604</v>
       </c>
       <c r="J215" t="n">
         <v>29</v>
@@ -7768,28 +7768,28 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.02585205721782417</v>
+        <v>0.0109539219888327</v>
       </c>
       <c r="C216" t="n">
-        <v>0.01475560622492184</v>
+        <v>0.02473298170482878</v>
       </c>
       <c r="D216" t="n">
-        <v>0.02311029388159948</v>
+        <v>0.006481884813021882</v>
       </c>
       <c r="E216" t="n">
-        <v>0.02514381928107888</v>
+        <v>0.0120343245906838</v>
       </c>
       <c r="F216" t="n">
-        <v>0.02585205721782417</v>
+        <v>0.0109539219888327</v>
       </c>
       <c r="G216" t="n">
-        <v>0.6634866977974089</v>
+        <v>0.681458843878832</v>
       </c>
       <c r="H216" t="n">
-        <v>0.7975755554846481</v>
+        <v>0.9085010311631759</v>
       </c>
       <c r="I216" t="n">
-        <v>0.6072128844188848</v>
+        <v>0.5807791275880604</v>
       </c>
       <c r="J216" t="n">
         <v>29</v>
@@ -7802,28 +7802,28 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.08264294748029455</v>
+        <v>0.04669433168240779</v>
       </c>
       <c r="C217" t="n">
-        <v>0.01901244314911562</v>
+        <v>0.01709769769020745</v>
       </c>
       <c r="D217" t="n">
-        <v>0.07771665179599344</v>
+        <v>0.05258380130484276</v>
       </c>
       <c r="E217" t="n">
-        <v>0.07999312831449815</v>
+        <v>0.04654134990666353</v>
       </c>
       <c r="F217" t="n">
-        <v>0.1011411562105138</v>
+        <v>0.04422859141298191</v>
       </c>
       <c r="G217" t="n">
-        <v>0.6634866977974089</v>
+        <v>0.681458843878832</v>
       </c>
       <c r="H217" t="n">
-        <v>0.7975755554846481</v>
+        <v>0.9085010311631759</v>
       </c>
       <c r="I217" t="n">
-        <v>0.6072128844188848</v>
+        <v>0.5807791275880604</v>
       </c>
       <c r="J217" t="n">
         <v>29</v>
@@ -7836,28 +7836,28 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.3418861344581549</v>
+        <v>0.3009988387771899</v>
       </c>
       <c r="C218" t="n">
-        <v>0.03018668541502391</v>
+        <v>0.03794578588253023</v>
       </c>
       <c r="D218" t="n">
-        <v>0.3537531565390563</v>
+        <v>0.3514736250977931</v>
       </c>
       <c r="E218" t="n">
-        <v>0.3513074195225472</v>
+        <v>0.3308485129834758</v>
       </c>
       <c r="F218" t="n">
-        <v>0.3896145882708834</v>
+        <v>0.3653877048748665</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2571405355939771</v>
+        <v>0.3565365543532757</v>
       </c>
       <c r="H218" t="n">
-        <v>0.8001881809873765</v>
+        <v>0.8619812125988284</v>
       </c>
       <c r="I218" t="n">
-        <v>0.5139708461578769</v>
+        <v>0.5157441022208841</v>
       </c>
       <c r="J218" t="n">
         <v>30</v>
@@ -7870,28 +7870,28 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.4441544050524486</v>
+        <v>0.3873901992004753</v>
       </c>
       <c r="C219" t="n">
-        <v>0.01543124187361063</v>
+        <v>0.03475130243246738</v>
       </c>
       <c r="D219" t="n">
-        <v>0.4516360625693781</v>
+        <v>0.4672974350853765</v>
       </c>
       <c r="E219" t="n">
-        <v>0.4688580850167248</v>
+        <v>0.4716671400910417</v>
       </c>
       <c r="F219" t="n">
-        <v>0.2766675127691852</v>
+        <v>0.3317830195576682</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2571405355939771</v>
+        <v>0.3565365543532757</v>
       </c>
       <c r="H219" t="n">
-        <v>0.8001881809873765</v>
+        <v>0.8619812125988284</v>
       </c>
       <c r="I219" t="n">
-        <v>0.5139708461578769</v>
+        <v>0.5157441022208841</v>
       </c>
       <c r="J219" t="n">
         <v>30</v>
@@ -7904,28 +7904,28 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.03077486175538491</v>
+        <v>0.07409260141172822</v>
       </c>
       <c r="C220" t="n">
-        <v>0.006562052033254796</v>
+        <v>0.02677785559993908</v>
       </c>
       <c r="D220" t="n">
-        <v>0.03631333991273254</v>
+        <v>0.06226722201843908</v>
       </c>
       <c r="E220" t="n">
-        <v>0.03025622378705623</v>
+        <v>0.03675272009873985</v>
       </c>
       <c r="F220" t="n">
-        <v>0.02918524122538365</v>
+        <v>0.0749048496521536</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2571405355939771</v>
+        <v>0.3565365543532757</v>
       </c>
       <c r="H220" t="n">
-        <v>0.8001881809873765</v>
+        <v>0.8619812125988284</v>
       </c>
       <c r="I220" t="n">
-        <v>0.5139708461578769</v>
+        <v>0.5157441022208841</v>
       </c>
       <c r="J220" t="n">
         <v>30</v>
@@ -7938,28 +7938,28 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.04991528861597429</v>
+        <v>0.07100846901553484</v>
       </c>
       <c r="C221" t="n">
-        <v>0.01115821711408711</v>
+        <v>0.01340736247422005</v>
       </c>
       <c r="D221" t="n">
-        <v>0.04732822069088333</v>
+        <v>0.07501269162602545</v>
       </c>
       <c r="E221" t="n">
-        <v>0.04910247968638804</v>
+        <v>0.068767114456151</v>
       </c>
       <c r="F221" t="n">
-        <v>0.0402358612650345</v>
+        <v>0.05860403765775359</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2571405355939771</v>
+        <v>0.3565365543532757</v>
       </c>
       <c r="H221" t="n">
-        <v>0.8001881809873765</v>
+        <v>0.8619812125988284</v>
       </c>
       <c r="I221" t="n">
-        <v>0.5139708461578769</v>
+        <v>0.5157441022208841</v>
       </c>
       <c r="J221" t="n">
         <v>30</v>
@@ -7972,28 +7972,28 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.0408633334382548</v>
+        <v>0.06033140327078697</v>
       </c>
       <c r="C222" t="n">
-        <v>0.003472518350540848</v>
+        <v>0.004304228237724473</v>
       </c>
       <c r="D222" t="n">
-        <v>0.04437266068813622</v>
+        <v>0.0786138472530795</v>
       </c>
       <c r="E222" t="n">
-        <v>0.04322370351940187</v>
+        <v>0.06756783384729217</v>
       </c>
       <c r="F222" t="n">
-        <v>0.04400297398054102</v>
+        <v>0.06843464552818976</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2571405355939771</v>
+        <v>0.3565365543532757</v>
       </c>
       <c r="H222" t="n">
-        <v>0.8001881809873765</v>
+        <v>0.8619812125988284</v>
       </c>
       <c r="I222" t="n">
-        <v>0.5139708461578769</v>
+        <v>0.5157441022208841</v>
       </c>
       <c r="J222" t="n">
         <v>30</v>
@@ -8006,28 +8006,28 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.04215987760068256</v>
+        <v>0.0622801604788227</v>
       </c>
       <c r="C223" t="n">
-        <v>0.0002586066017600024</v>
+        <v>0.002530712397429809</v>
       </c>
       <c r="D223" t="n">
-        <v>0.0328292763610473</v>
+        <v>0.07898933429448024</v>
       </c>
       <c r="E223" t="n">
-        <v>0.03448488748584675</v>
+        <v>0.07820633092101267</v>
       </c>
       <c r="F223" t="n">
-        <v>0.04215987760068256</v>
+        <v>0.0622801604788227</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2571405355939771</v>
+        <v>0.3565365543532757</v>
       </c>
       <c r="H223" t="n">
-        <v>0.8001881809873765</v>
+        <v>0.8619812125988284</v>
       </c>
       <c r="I223" t="n">
-        <v>0.5139708461578769</v>
+        <v>0.5157441022208841</v>
       </c>
       <c r="J223" t="n">
         <v>30</v>
@@ -8040,28 +8040,28 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.004001729216546087</v>
+        <v>0.01070974799150455</v>
       </c>
       <c r="C224" t="n">
-        <v>0.01628207653061717</v>
+        <v>0.01046585985970921</v>
       </c>
       <c r="D224" t="n">
-        <v>0.002948208096611642</v>
+        <v>0.00856140351715191</v>
       </c>
       <c r="E224" t="n">
-        <v>0.00483827934345767</v>
+        <v>0.007382097059814583</v>
       </c>
       <c r="F224" t="n">
-        <v>0.004001729216546087</v>
+        <v>0.01070974799150455</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2571405355939771</v>
+        <v>0.3565365543532757</v>
       </c>
       <c r="H224" t="n">
-        <v>0.8001881809873765</v>
+        <v>0.8619812125988284</v>
       </c>
       <c r="I224" t="n">
-        <v>0.5139708461578769</v>
+        <v>0.5157441022208841</v>
       </c>
       <c r="J224" t="n">
         <v>30</v>
@@ -8074,28 +8074,28 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.03696241380309546</v>
+        <v>0.09555523411042632</v>
       </c>
       <c r="C225" t="n">
-        <v>0.002229222204402741</v>
+        <v>0.02563895747102216</v>
       </c>
       <c r="D225" t="n">
-        <v>0.0372377215110092</v>
+        <v>0.09879989231937887</v>
       </c>
       <c r="E225" t="n">
-        <v>0.03691589071382527</v>
+        <v>0.09397821257924587</v>
       </c>
       <c r="F225" t="n">
-        <v>0.04041761079362312</v>
+        <v>0.06108097787651688</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2571405355939771</v>
+        <v>0.3565365543532757</v>
       </c>
       <c r="H225" t="n">
-        <v>0.8001881809873765</v>
+        <v>0.8619812125988284</v>
       </c>
       <c r="I225" t="n">
-        <v>0.5139708461578769</v>
+        <v>0.5157441022208841</v>
       </c>
       <c r="J225" t="n">
         <v>30</v>
